--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.487038289651082</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6003601625591273</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1971631431455805</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007788307927746805</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9705781594087739</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.513373949727892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.138524547236216</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5173281942217329</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1708501548121006</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007884175727395156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8337963385585923</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.225443371986117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.928440296357252</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.4672249162623814</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1551649304897396</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007944227952208397</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.751611274087935</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.054740760750448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.843656618375348</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.4469885476373463</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1488752072698745</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007969025272843451</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7185040515219328</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.986511359359653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.829624109048979</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.4436381703838777</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1478365264982244</v>
       </c>
       <c r="F6">
         <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007973163239065508</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7130279337775818</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.975257036679167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.927293716648563</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.4669513176669682</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1550797119053868</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007944561028060183</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.7511633098437045</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.053815443742423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.365962049312657</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5715229611611505</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1879822816049455</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007821133211517212</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.9229986131147285</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.412706608443187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.265140037803292</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.7856268518674199</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2570816633210811</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007587166848594598</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.277786622733942</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.174907077735554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3.962466476861778</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.951825227474302</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.3120037670428388</v>
       </c>
       <c r="F10">
         <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007418002703305504</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.555072512982491</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.786831077850934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.291199651408022</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.030297865781932</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.3382640091265969</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007341045936013618</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.686400185317879</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.080915090193713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.41769658880628</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.060521385030455</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.3484294816124631</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007311844197693498</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.73703674399583</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.19498538135079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.390357308705461</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.053987922080267</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.3462296462308245</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007318137038885609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.726088122957407</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.170289923857894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.301564015943995</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.032773589702373</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.3390956523410864</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007338645070132119</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.690546917976803</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.090242622255658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.247449374766006</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.01984843736227</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.3347559332612988</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000735119709019554</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.668900068997814</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.041578499458126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3.941243808474383</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.9467623150474367</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.3103163536241951</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007423027097122519</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.546607347247743</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.767964717360655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.75658088519117</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.9027233752195229</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.295675108555848</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007467052515570177</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.4730185614806</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.604431360958699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.651426896207226</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.8776566871399041</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.2873713259036705</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007492378576637824</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.431169600115382</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.511819762719881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.61599561010496</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.8692121428832706</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.2845789385643798</v>
       </c>
       <c r="F19">
         <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007500955846020535</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.417077838677798</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.480699452354486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3.776126554571078</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.9073835058086104</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.2972212832815799</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007462365939494636</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.480801742604726</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.62168686264701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.32758696538383</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.03899012815441</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.3411847376576631</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007332623516207448</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.700960237081844</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.113677025692255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4.699945741310728</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.128019561511763</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.3712301225955486</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007247444598873783</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.850221622230592</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.45126877903914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.499982091245897</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.080190460086129</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.3550598293945555</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007292963919302254</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.770005529067717</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.269451783097708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3.767286833881769</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.9052758831360848</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.2965219064051965</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007464484688785724</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.47728155082082</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.613881303920095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.01649650063996</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.7264203688386885</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.2377697701948733</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007649804016380768</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.179356413661203</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.960914173282603</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.487038289651082</v>
+        <v>0.9826478407175046</v>
       </c>
       <c r="C2">
-        <v>0.6003601625591273</v>
+        <v>0.1738021333906943</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1971631431455805</v>
+        <v>0.1264220035974155</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.016539806636111</v>
       </c>
       <c r="G2">
-        <v>0.0007788307927746805</v>
+        <v>0.3650834242500096</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.341276950076967</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.09247437386018476</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7676775376249765</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2883369521989323</v>
       </c>
       <c r="M2">
-        <v>0.9705781594087739</v>
+        <v>0.2615455473615746</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.513373949727892</v>
+        <v>1.434979842844939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138524547236216</v>
+        <v>0.8548464427512101</v>
       </c>
       <c r="C3">
-        <v>0.5173281942217329</v>
+        <v>0.1785501117842525</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1708501548121006</v>
+        <v>0.121664560777095</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.9863302451370402</v>
       </c>
       <c r="G3">
-        <v>0.0007884175727395156</v>
+        <v>0.3685306543478504</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.348794162217807</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08624508944143727</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6749625406370967</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2610768196590527</v>
       </c>
       <c r="M3">
-        <v>0.8337963385585923</v>
+        <v>0.2293092818482698</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.225443371986117</v>
+        <v>1.457676792453185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.928440296357252</v>
+        <v>0.7764764576708671</v>
       </c>
       <c r="C4">
-        <v>0.4672249162623814</v>
+        <v>0.1815966568536336</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1551649304897396</v>
+        <v>0.1188736151650076</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.9693507678343707</v>
       </c>
       <c r="G4">
-        <v>0.0007944227952208397</v>
+        <v>0.3714565270209604</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3539138511205451</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08241155193491423</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6179592176434596</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2445293570040548</v>
       </c>
       <c r="M4">
-        <v>0.751611274087935</v>
+        <v>0.2095965280584551</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.054740760750448</v>
+        <v>1.474375228591924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.843656618375348</v>
+        <v>0.7445566307598881</v>
       </c>
       <c r="C5">
-        <v>0.4469885476373463</v>
+        <v>0.1828709109911948</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1488752072698745</v>
+        <v>0.1177679703705827</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.9628113883690332</v>
       </c>
       <c r="G5">
-        <v>0.0007969025272843451</v>
+        <v>0.3728449874869426</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3561237650267302</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08084685867939356</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.59470543719533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2378310803778874</v>
       </c>
       <c r="M5">
-        <v>0.7185040515219328</v>
+        <v>0.2015810968123795</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.986511359359653</v>
+        <v>1.481852396722076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829624109048979</v>
+        <v>0.7392571236917718</v>
       </c>
       <c r="C6">
-        <v>0.4436381703838777</v>
+        <v>0.1830844716629567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1478365264982244</v>
+        <v>0.1175862632863875</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>0.9617480554375888</v>
       </c>
       <c r="G6">
-        <v>0.0007973163239065508</v>
+        <v>0.373087177807399</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3564980948460885</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08058688334978115</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5908425365684451</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2367214686832568</v>
       </c>
       <c r="M6">
-        <v>0.7130279337775818</v>
+        <v>0.2002511360862158</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.975257036679167</v>
+        <v>1.483133955656797</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.927293716648563</v>
+        <v>0.7760459197662897</v>
       </c>
       <c r="C7">
-        <v>0.4669513176669682</v>
+        <v>0.1816137095544512</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1550797119053868</v>
+        <v>0.1188585770870638</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>0.9692610562945063</v>
       </c>
       <c r="G7">
-        <v>0.0007944561028060183</v>
+        <v>0.3714744675925914</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3539431584165484</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08239046042485043</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6176457149384476</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2444388434674352</v>
       </c>
       <c r="M7">
-        <v>0.7511633098437045</v>
+        <v>0.2094883608574527</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.053815443742423</v>
+        <v>1.474473374350566</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.365962049312657</v>
+        <v>0.9385556077108674</v>
       </c>
       <c r="C8">
-        <v>0.5715229611611505</v>
+        <v>0.1754118418573754</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1879822816049455</v>
+        <v>0.1247539863472582</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.005788773829842</v>
       </c>
       <c r="G8">
-        <v>0.0007821133211517212</v>
+        <v>0.3660995457829515</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3437623183587988</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09032814199331085</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7357218089001094</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2788963383691794</v>
       </c>
       <c r="M8">
-        <v>0.9229986131147285</v>
+        <v>0.2504122002988289</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.412706608443187</v>
+        <v>1.442218749355249</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.265140037803292</v>
+        <v>1.258467196088958</v>
       </c>
       <c r="C9">
-        <v>0.7856268518674199</v>
+        <v>0.1643027500448735</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2570816633210811</v>
+        <v>0.1373971488864072</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.090570696618286</v>
       </c>
       <c r="G9">
-        <v>0.0007587166848594598</v>
+        <v>0.36232758851515</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3279463874295416</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1058395942359383</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9669355069060259</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3481198152538809</v>
       </c>
       <c r="M9">
-        <v>1.277786622733942</v>
+        <v>0.3314275647401743</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.174907077735554</v>
+        <v>1.40193453483127</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.962466476861778</v>
+        <v>1.49491613783178</v>
       </c>
       <c r="C10">
-        <v>0.951825227474302</v>
+        <v>0.1567984378178426</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3120037670428388</v>
+        <v>0.1474191860818195</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>1.1619034781978</v>
       </c>
       <c r="G10">
-        <v>0.0007418002703305504</v>
+        <v>0.3641891358304079</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3190727095495234</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1172256468562409</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.137020136543811</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4001982345631632</v>
       </c>
       <c r="M10">
-        <v>1.555072512982491</v>
+        <v>0.3916053170440676</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.786831077850934</v>
+        <v>1.387868910136248</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.291199651408022</v>
+        <v>1.602946603305867</v>
       </c>
       <c r="C11">
-        <v>1.030297865781932</v>
+        <v>0.1535309434006162</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3382640091265969</v>
+        <v>0.1521548432289208</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.196559075185718</v>
       </c>
       <c r="G11">
-        <v>0.0007341045936013618</v>
+        <v>0.3661609484620243</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3156832380023076</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1224086528292148</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.214541838295816</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4242051612780244</v>
       </c>
       <c r="M11">
-        <v>1.686400185317879</v>
+        <v>0.4191693197669224</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.080915090193713</v>
+        <v>1.385201925403479</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.41769658880628</v>
+        <v>1.643935884274498</v>
       </c>
       <c r="C12">
-        <v>1.060521385030455</v>
+        <v>0.1523149916538529</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3484294816124631</v>
+        <v>0.153975001249183</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>1.210020649948575</v>
       </c>
       <c r="G12">
-        <v>0.0007311844197693498</v>
+        <v>0.3670799666091114</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3144973616883746</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1243722694345664</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.243927346031171</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4333457701938812</v>
       </c>
       <c r="M12">
-        <v>1.73703674399583</v>
+        <v>0.4296381402386942</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.19498538135079</v>
+        <v>1.384760580065191</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.390357308705461</v>
+        <v>1.635104311270027</v>
       </c>
       <c r="C13">
-        <v>1.053987922080267</v>
+        <v>0.1525759121596124</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3462296462308245</v>
+        <v>0.1535817782934785</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>1.207106066381954</v>
       </c>
       <c r="G13">
-        <v>0.0007318137038885609</v>
+        <v>0.3668741997025791</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3147483427396978</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1239493211917448</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.237597191594318</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4313748954254635</v>
       </c>
       <c r="M13">
-        <v>1.726088122957407</v>
+        <v>0.4273820539654167</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.170289923857894</v>
+        <v>1.38482981296923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.301564015943995</v>
+        <v>1.606317124781157</v>
       </c>
       <c r="C14">
-        <v>1.032773589702373</v>
+        <v>0.153430475839933</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3390956523410864</v>
+        <v>0.1523040415011074</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.197659662892676</v>
       </c>
       <c r="G14">
-        <v>0.0007338645070132119</v>
+        <v>0.3662330399316431</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.315583691101935</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1225701796534437</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.216958756678991</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4249561432414737</v>
       </c>
       <c r="M14">
-        <v>1.690546917976803</v>
+        <v>0.4200299535045176</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.090242622255658</v>
+        <v>1.385154030030421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.247449374766006</v>
+        <v>1.588695027859814</v>
       </c>
       <c r="C15">
-        <v>1.01984843736227</v>
+        <v>0.1539567153058332</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3347559332612988</v>
+        <v>0.1515249350200918</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>1.191918164637457</v>
       </c>
       <c r="G15">
-        <v>0.000735119709019554</v>
+        <v>0.3658630789212793</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3161082227804712</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1217255493071505</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.204321244894174</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4210310758504221</v>
       </c>
       <c r="M15">
-        <v>1.668900068997814</v>
+        <v>0.415530724134058</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.041578499458126</v>
+        <v>1.385427652221779</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.941243808474383</v>
+        <v>1.487866622555458</v>
       </c>
       <c r="C16">
-        <v>0.9467623150474367</v>
+        <v>0.1570149485040879</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3103163536241951</v>
+        <v>0.147113377173941</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>1.15968481259155</v>
       </c>
       <c r="G16">
-        <v>0.0007423027097122519</v>
+        <v>0.3640837991445238</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3193076276275804</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1168870305653513</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.131957607723194</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3986360443464747</v>
       </c>
       <c r="M16">
-        <v>1.546607347247743</v>
+        <v>0.3898080617149091</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.767964717360655</v>
+        <v>1.388120982100205</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.75658088519117</v>
+        <v>1.426140734100613</v>
       </c>
       <c r="C17">
-        <v>0.9027233752195229</v>
+        <v>0.1589287760593905</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.295675108555848</v>
+        <v>0.1444532789061235</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.140490267849856</v>
       </c>
       <c r="G17">
-        <v>0.0007467052515570177</v>
+        <v>0.363287718804358</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3214392912953272</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1139199339121646</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.087608794175907</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.384981335343042</v>
       </c>
       <c r="M17">
-        <v>1.4730185614806</v>
+        <v>0.3740790169952604</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.604431360958699</v>
+        <v>1.390751138886614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.651426896207226</v>
+        <v>1.390680911430707</v>
       </c>
       <c r="C18">
-        <v>0.8776566871399041</v>
+        <v>0.1600433035640876</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2873713259036705</v>
+        <v>0.1429397881801258</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>1.129656375899188</v>
       </c>
       <c r="G18">
-        <v>0.0007492378576637824</v>
+        <v>0.3629350536317801</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3227259959597859</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1122136342361415</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.062114058911675</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3771570002284648</v>
       </c>
       <c r="M18">
-        <v>1.431169600115382</v>
+        <v>0.3650496205838323</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.511819762719881</v>
+        <v>1.392613136746689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.61599561010496</v>
+        <v>1.378681872870544</v>
       </c>
       <c r="C19">
-        <v>0.8692121428832706</v>
+        <v>0.1604230137783382</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2845789385643798</v>
+        <v>0.1424301412769218</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>1.12602301831356</v>
       </c>
       <c r="G19">
-        <v>0.0007500955846020535</v>
+        <v>0.3628334073440698</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.323171930172883</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1116359485873559</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.05348406163003</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3745127552832059</v>
       </c>
       <c r="M19">
-        <v>1.417077838677798</v>
+        <v>0.3619953225858339</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.480699452354486</v>
+        <v>1.393302609864023</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.776126554571078</v>
+        <v>1.432706989397559</v>
       </c>
       <c r="C20">
-        <v>0.9073835058086104</v>
+        <v>0.1587236208887504</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2972212832815799</v>
+        <v>0.1447347299691302</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.142512060005032</v>
       </c>
       <c r="G20">
-        <v>0.0007462365939494636</v>
+        <v>0.3633614986658102</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3212060650430075</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1142357527586952</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.092328343005221</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3864318202198262</v>
       </c>
       <c r="M20">
-        <v>1.480801742604726</v>
+        <v>0.375751559384824</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.62168686264701</v>
+        <v>1.390434787712763</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.32758696538383</v>
+        <v>1.614770325973637</v>
       </c>
       <c r="C21">
-        <v>1.03899012815441</v>
+        <v>0.1531788867515349</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3411847376576631</v>
+        <v>0.152678602405949</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.200424946480766</v>
       </c>
       <c r="G21">
-        <v>0.0007332623516207448</v>
+        <v>0.3664165995142739</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3153356411448343</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1229752382910902</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.223019889978502</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4268401022087573</v>
       </c>
       <c r="M21">
-        <v>1.700960237081844</v>
+        <v>0.4221885728327734</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.113677025692255</v>
+        <v>1.385043103541264</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.699945741310728</v>
+        <v>1.734235124263904</v>
       </c>
       <c r="C22">
-        <v>1.128019561511763</v>
+        <v>0.1496798594614557</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3712301225955486</v>
+        <v>0.1580277344129826</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>1.2402566583621</v>
       </c>
       <c r="G22">
-        <v>0.0007247444598873783</v>
+        <v>0.3694231698715171</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3120704515745203</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1286926065147753</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.30861187295875</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4535411423984357</v>
       </c>
       <c r="M22">
-        <v>1.850221622230592</v>
+        <v>0.4527200696776319</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.45126877903914</v>
+        <v>1.384849773872716</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.499982091245897</v>
+        <v>1.670426404327287</v>
       </c>
       <c r="C23">
-        <v>1.080190460086129</v>
+        <v>0.1515358203138693</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3550598293945555</v>
+        <v>0.1551578938475444</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>1.218809054454908</v>
       </c>
       <c r="G23">
-        <v>0.0007292963919302254</v>
+        <v>0.3677224382946918</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3137592672535092</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.125640476897054</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.262910697644969</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4392621152743175</v>
       </c>
       <c r="M23">
-        <v>1.770005529067717</v>
+        <v>0.4364068478495113</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.269451783097708</v>
+        <v>1.38463712344506</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.767286833881769</v>
+        <v>1.429738301595279</v>
       </c>
       <c r="C24">
-        <v>0.9052758831360848</v>
+        <v>0.158816327204887</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2965219064051965</v>
+        <v>0.1446074367309329</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>1.141597382319844</v>
       </c>
       <c r="G24">
-        <v>0.0007464484688785724</v>
+        <v>0.3633278164928271</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3213113164034596</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1140929725740705</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.09019462940222</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3857759755302936</v>
       </c>
       <c r="M24">
-        <v>1.47728155082082</v>
+        <v>0.3749953613874908</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.613881303920095</v>
+        <v>1.390576722659105</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.01649650063996</v>
+        <v>1.171725300230236</v>
       </c>
       <c r="C25">
-        <v>0.7264203688386885</v>
+        <v>0.1671937708610471</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2377697701948733</v>
+        <v>0.1338536387289722</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.066124466246251</v>
       </c>
       <c r="G25">
-        <v>0.0007649804016380768</v>
+        <v>0.36257282540668</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3317592089037404</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1016468612879535</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9043805738272965</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3291949122473312</v>
       </c>
       <c r="M25">
-        <v>1.179356413661203</v>
+        <v>0.3094100544218179</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.960914173282603</v>
+        <v>1.41022099312427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9826478407175046</v>
+        <v>0.5089696350451618</v>
       </c>
       <c r="C2">
-        <v>0.1738021333906943</v>
+        <v>0.3725824631726109</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1264220035974155</v>
+        <v>0.2833489666963693</v>
       </c>
       <c r="F2">
-        <v>1.016539806636111</v>
+        <v>2.068094517207555</v>
       </c>
       <c r="G2">
-        <v>0.3650834242500096</v>
+        <v>0.7770739020213142</v>
       </c>
       <c r="H2">
-        <v>0.341276950076967</v>
+        <v>0.8777017147733304</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09247437386018476</v>
+        <v>0.07059028345345553</v>
       </c>
       <c r="K2">
-        <v>0.7676775376249765</v>
+        <v>0.2334338854878126</v>
       </c>
       <c r="L2">
-        <v>0.2883369521989323</v>
+        <v>0.4213504119095859</v>
       </c>
       <c r="M2">
-        <v>0.2615455473615746</v>
+        <v>0.215225388113204</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.434979842844939</v>
+        <v>3.323135395211011</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8548464427512101</v>
+        <v>0.4715632714483036</v>
       </c>
       <c r="C3">
-        <v>0.1785501117842525</v>
+        <v>0.3750206972920722</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.121664560777095</v>
+        <v>0.2835279461376246</v>
       </c>
       <c r="F3">
-        <v>0.9863302451370402</v>
+        <v>2.073785284769158</v>
       </c>
       <c r="G3">
-        <v>0.3685306543478504</v>
+        <v>0.7839489105253818</v>
       </c>
       <c r="H3">
-        <v>0.348794162217807</v>
+        <v>0.8845694471904721</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08624508944143727</v>
+        <v>0.06840293147484644</v>
       </c>
       <c r="K3">
-        <v>0.6749625406370967</v>
+        <v>0.2036824312599208</v>
       </c>
       <c r="L3">
-        <v>0.2610768196590527</v>
+        <v>0.4157219087694983</v>
       </c>
       <c r="M3">
-        <v>0.2293092818482698</v>
+        <v>0.2066109941149605</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.457676792453185</v>
+        <v>3.35184895133284</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7764764576708671</v>
+        <v>0.4486837299064916</v>
       </c>
       <c r="C4">
-        <v>0.1815966568536336</v>
+        <v>0.3766016061303468</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1188736151650076</v>
+        <v>0.2837345105077915</v>
       </c>
       <c r="F4">
-        <v>0.9693507678343707</v>
+        <v>2.078234508088492</v>
       </c>
       <c r="G4">
-        <v>0.3714565270209604</v>
+        <v>0.7885959409305201</v>
       </c>
       <c r="H4">
-        <v>0.3539138511205451</v>
+        <v>0.8891051468936695</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08241155193491423</v>
+        <v>0.06704894626164659</v>
       </c>
       <c r="K4">
-        <v>0.6179592176434596</v>
+        <v>0.1853510153708555</v>
       </c>
       <c r="L4">
-        <v>0.2445293570040548</v>
+        <v>0.4124128509810987</v>
       </c>
       <c r="M4">
-        <v>0.2095965280584551</v>
+        <v>0.2013867044975868</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.474375228591924</v>
+        <v>3.371041113095885</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7445566307598881</v>
+        <v>0.4393830043618436</v>
       </c>
       <c r="C5">
-        <v>0.1828709109911948</v>
+        <v>0.3772669542948286</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1177679703705827</v>
+        <v>0.2838430591478591</v>
       </c>
       <c r="F5">
-        <v>0.9628113883690332</v>
+        <v>2.080288073649221</v>
       </c>
       <c r="G5">
-        <v>0.3728449874869426</v>
+        <v>0.790596705563523</v>
       </c>
       <c r="H5">
-        <v>0.3561237650267302</v>
+        <v>0.8910337465252738</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08084685867939356</v>
+        <v>0.06649446100686163</v>
       </c>
       <c r="K5">
-        <v>0.59470543719533</v>
+        <v>0.1778652393571605</v>
       </c>
       <c r="L5">
-        <v>0.2378310803778874</v>
+        <v>0.4111014987260972</v>
       </c>
       <c r="M5">
-        <v>0.2015810968123795</v>
+        <v>0.1992742932564937</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.481852396722076</v>
+        <v>3.379255002289199</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7392571236917718</v>
+        <v>0.4378400285573036</v>
       </c>
       <c r="C6">
-        <v>0.1830844716629567</v>
+        <v>0.3773787112322413</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1175862632863875</v>
+        <v>0.2838625574397646</v>
       </c>
       <c r="F6">
-        <v>0.9617480554375888</v>
+        <v>2.080643599635529</v>
       </c>
       <c r="G6">
-        <v>0.373087177807399</v>
+        <v>0.7909353974172362</v>
       </c>
       <c r="H6">
-        <v>0.3564980948460885</v>
+        <v>0.8913588391728595</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08058688334978115</v>
+        <v>0.06640222532357853</v>
       </c>
       <c r="K6">
-        <v>0.5908425365684451</v>
+        <v>0.1766213058097179</v>
       </c>
       <c r="L6">
-        <v>0.2367214686832568</v>
+        <v>0.4108859968205394</v>
       </c>
       <c r="M6">
-        <v>0.2002511360862158</v>
+        <v>0.1989245328571236</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.483133955656797</v>
+        <v>3.380642649168948</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7760459197662897</v>
+        <v>0.4485582035053142</v>
       </c>
       <c r="C7">
-        <v>0.1816137095544512</v>
+        <v>0.3766104937062984</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1188585770870638</v>
+        <v>0.2837358756669595</v>
       </c>
       <c r="F7">
-        <v>0.9692610562945063</v>
+        <v>2.078261229121019</v>
       </c>
       <c r="G7">
-        <v>0.3714744675925914</v>
+        <v>0.788622490446194</v>
       </c>
       <c r="H7">
-        <v>0.3539431584165484</v>
+        <v>0.8891308315666819</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08239046042485043</v>
+        <v>0.06704147927942472</v>
       </c>
       <c r="K7">
-        <v>0.6176457149384476</v>
+        <v>0.1852501219855895</v>
       </c>
       <c r="L7">
-        <v>0.2444388434674352</v>
+        <v>0.4123950151003442</v>
       </c>
       <c r="M7">
-        <v>0.2094883608574527</v>
+        <v>0.2013581486042462</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.474473374350566</v>
+        <v>3.371150297305363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9385556077108674</v>
+        <v>0.4960540490984044</v>
       </c>
       <c r="C8">
-        <v>0.1754118418573754</v>
+        <v>0.3734057911422308</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1247539863472582</v>
+        <v>0.2833906524924465</v>
       </c>
       <c r="F8">
-        <v>1.005788773829842</v>
+        <v>2.069858652818596</v>
       </c>
       <c r="G8">
-        <v>0.3660995457829515</v>
+        <v>0.779356043642295</v>
       </c>
       <c r="H8">
-        <v>0.3437623183587988</v>
+        <v>0.8800035722449948</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09032814199331085</v>
+        <v>0.06983837070048793</v>
       </c>
       <c r="K8">
-        <v>0.7357218089001094</v>
+        <v>0.2231891338962697</v>
       </c>
       <c r="L8">
-        <v>0.2788963383691794</v>
+        <v>0.4193793305002345</v>
       </c>
       <c r="M8">
-        <v>0.2504122002988289</v>
+        <v>0.2122417679332287</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.442218749355249</v>
+        <v>3.332711754468491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.258467196088958</v>
+        <v>0.5898657433008623</v>
       </c>
       <c r="C9">
-        <v>0.1643027500448735</v>
+        <v>0.3677847633633622</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1373971488864072</v>
+        <v>0.2834781154435078</v>
       </c>
       <c r="F9">
-        <v>1.090570696618286</v>
+        <v>2.060947110676466</v>
       </c>
       <c r="G9">
-        <v>0.36232758851515</v>
+        <v>0.7645626694107079</v>
       </c>
       <c r="H9">
-        <v>0.3279463874295416</v>
+        <v>0.8646316951452846</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1058395942359383</v>
+        <v>0.07523532708048464</v>
       </c>
       <c r="K9">
-        <v>0.9669355069060259</v>
+        <v>0.2970621964340125</v>
       </c>
       <c r="L9">
-        <v>0.3481198152538809</v>
+        <v>0.4342337467224553</v>
       </c>
       <c r="M9">
-        <v>0.3314275647401743</v>
+        <v>0.2340930269317241</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.40193453483127</v>
+        <v>3.269719825073366</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.49491613783178</v>
+        <v>0.6591703046944417</v>
       </c>
       <c r="C10">
-        <v>0.1567984378178426</v>
+        <v>0.3640569675008276</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1474191860818195</v>
+        <v>0.2840052083290274</v>
       </c>
       <c r="F10">
-        <v>1.1619034781978</v>
+        <v>2.058998047223355</v>
       </c>
       <c r="G10">
-        <v>0.3641891358304079</v>
+        <v>0.7557536034308256</v>
       </c>
       <c r="H10">
-        <v>0.3190727095495234</v>
+        <v>0.8548734037537571</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1172256468562409</v>
+        <v>0.07914609643337656</v>
       </c>
       <c r="K10">
-        <v>1.137020136543811</v>
+        <v>0.3509972601552249</v>
       </c>
       <c r="L10">
-        <v>0.4001982345631632</v>
+        <v>0.44584526976017</v>
       </c>
       <c r="M10">
-        <v>0.3916053170440676</v>
+        <v>0.2504493659439362</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.387868910136248</v>
+        <v>3.23098109710763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.602946603305867</v>
+        <v>0.6907758172211231</v>
       </c>
       <c r="C11">
-        <v>0.1535309434006162</v>
+        <v>0.3624478619589251</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1521548432289208</v>
+        <v>0.2843448389981944</v>
       </c>
       <c r="F11">
-        <v>1.196559075185718</v>
+        <v>2.05910698439466</v>
       </c>
       <c r="G11">
-        <v>0.3661609484620243</v>
+        <v>0.7521934378389616</v>
       </c>
       <c r="H11">
-        <v>0.3156832380023076</v>
+        <v>0.8507664796376488</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1224086528292148</v>
+        <v>0.08091323077661627</v>
       </c>
       <c r="K11">
-        <v>1.214541838295816</v>
+        <v>0.3754562422358561</v>
       </c>
       <c r="L11">
-        <v>0.4242051612780244</v>
+        <v>0.4512775891581668</v>
       </c>
       <c r="M11">
-        <v>0.4191693197669224</v>
+        <v>0.2579543688902888</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.385201925403479</v>
+        <v>3.214993488533523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.643935884274498</v>
+        <v>0.7027546611865318</v>
       </c>
       <c r="C12">
-        <v>0.1523149916538529</v>
+        <v>0.3618509636337777</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.153975001249183</v>
+        <v>0.2844877472274838</v>
       </c>
       <c r="F12">
-        <v>1.210020649948575</v>
+        <v>2.059291122776472</v>
       </c>
       <c r="G12">
-        <v>0.3670799666091114</v>
+        <v>0.7509095982719529</v>
       </c>
       <c r="H12">
-        <v>0.3144973616883746</v>
+        <v>0.8492589840950586</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1243722694345664</v>
+        <v>0.08158066552116594</v>
       </c>
       <c r="K12">
-        <v>1.243927346031171</v>
+        <v>0.3847068125993189</v>
       </c>
       <c r="L12">
-        <v>0.4333457701938812</v>
+        <v>0.4533560949781759</v>
       </c>
       <c r="M12">
-        <v>0.4296381402386942</v>
+        <v>0.2608054138954756</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.384760580065191</v>
+        <v>3.20917434493191</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.635104311270027</v>
+        <v>0.7001743470515862</v>
       </c>
       <c r="C13">
-        <v>0.1525759121596124</v>
+        <v>0.3619789638001656</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1535817782934785</v>
+        <v>0.2844563344763635</v>
       </c>
       <c r="F13">
-        <v>1.207106066381954</v>
+        <v>2.059245114790897</v>
       </c>
       <c r="G13">
-        <v>0.3668741997025791</v>
+        <v>0.7511832351909433</v>
       </c>
       <c r="H13">
-        <v>0.3147483427396978</v>
+        <v>0.8495815293549285</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1239493211917448</v>
+        <v>0.08143699940758609</v>
       </c>
       <c r="K13">
-        <v>1.237597191594318</v>
+        <v>0.3827150574276459</v>
       </c>
       <c r="L13">
-        <v>0.4313748954254635</v>
+        <v>0.4529075026413807</v>
       </c>
       <c r="M13">
-        <v>0.4273820539654167</v>
+        <v>0.2601909904421262</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.38482981296923</v>
+        <v>3.210417150310946</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.606317124781157</v>
+        <v>0.6917611174391141</v>
       </c>
       <c r="C14">
-        <v>0.153430475839933</v>
+        <v>0.3623985057326777</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1523040415011074</v>
+        <v>0.2843563099529369</v>
       </c>
       <c r="F14">
-        <v>1.197659662892676</v>
+        <v>2.059119271504116</v>
       </c>
       <c r="G14">
-        <v>0.3662330399316431</v>
+        <v>0.7520865264334446</v>
       </c>
       <c r="H14">
-        <v>0.315583691101935</v>
+        <v>0.8506415012762147</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1225701796534437</v>
+        <v>0.08096817609426665</v>
       </c>
       <c r="K14">
-        <v>1.216958756678991</v>
+        <v>0.3762175260781362</v>
       </c>
       <c r="L14">
-        <v>0.4249561432414737</v>
+        <v>0.4514481612031034</v>
       </c>
       <c r="M14">
-        <v>0.4200299535045176</v>
+        <v>0.2581887455854925</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.385154030030421</v>
+        <v>3.214510034403943</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.588695027859814</v>
+        <v>0.6866091188982182</v>
       </c>
       <c r="C15">
-        <v>0.1539567153058332</v>
+        <v>0.3626571057856136</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1515249350200918</v>
+        <v>0.2842969021760915</v>
       </c>
       <c r="F15">
-        <v>1.191918164637457</v>
+        <v>2.059060788641716</v>
       </c>
       <c r="G15">
-        <v>0.3658630789212793</v>
+        <v>0.7526481951378301</v>
       </c>
       <c r="H15">
-        <v>0.3161082227804712</v>
+        <v>0.8512969758809135</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1217255493071505</v>
+        <v>0.08068078068964724</v>
       </c>
       <c r="K15">
-        <v>1.204321244894174</v>
+        <v>0.3722360849874633</v>
       </c>
       <c r="L15">
-        <v>0.4210310758504221</v>
+        <v>0.4505570542384305</v>
       </c>
       <c r="M15">
-        <v>0.415530724134058</v>
+        <v>0.2569634871528947</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.385427652221779</v>
+        <v>3.217047648125202</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.487866622555458</v>
+        <v>0.6571063243906394</v>
       </c>
       <c r="C16">
-        <v>0.1570149485040879</v>
+        <v>0.3641638680884629</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.147113377173941</v>
+        <v>0.2839850167289164</v>
       </c>
       <c r="F16">
-        <v>1.15968481259155</v>
+        <v>2.059010937857423</v>
       </c>
       <c r="G16">
-        <v>0.3640837991445238</v>
+        <v>0.7559952677836819</v>
       </c>
       <c r="H16">
-        <v>0.3193076276275804</v>
+        <v>0.8551484800454148</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1168870305653513</v>
+        <v>0.07903036811700304</v>
       </c>
       <c r="K16">
-        <v>1.131957607723194</v>
+        <v>0.3493972259228713</v>
       </c>
       <c r="L16">
-        <v>0.3986360443464747</v>
+        <v>0.4454932605561197</v>
       </c>
       <c r="M16">
-        <v>0.3898080617149091</v>
+        <v>0.2499601755417515</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.388120982100205</v>
+        <v>3.2320588159522</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.426140734100613</v>
+        <v>0.6390268789011202</v>
       </c>
       <c r="C17">
-        <v>0.1589287760593905</v>
+        <v>0.3651103988632762</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1444532789061235</v>
+        <v>0.2838192163259059</v>
       </c>
       <c r="F17">
-        <v>1.140490267849856</v>
+        <v>2.059235150612054</v>
       </c>
       <c r="G17">
-        <v>0.363287718804358</v>
+        <v>0.758163123223774</v>
       </c>
       <c r="H17">
-        <v>0.3214392912953272</v>
+        <v>0.8575962885482511</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1139199339121646</v>
+        <v>0.0780148255222386</v>
       </c>
       <c r="K17">
-        <v>1.087608794175907</v>
+        <v>0.3353663886092306</v>
       </c>
       <c r="L17">
-        <v>0.384981335343042</v>
+        <v>0.4424251156054311</v>
       </c>
       <c r="M17">
-        <v>0.3740790169952604</v>
+        <v>0.2456802280182018</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.390751138886614</v>
+        <v>3.241686351290724</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.390680911430707</v>
+        <v>0.6286354965614009</v>
       </c>
       <c r="C18">
-        <v>0.1600433035640876</v>
+        <v>0.3656629795688584</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1429397881801258</v>
+        <v>0.2837332546671512</v>
       </c>
       <c r="F18">
-        <v>1.129656375899188</v>
+        <v>2.05945783676961</v>
       </c>
       <c r="G18">
-        <v>0.3629350536317801</v>
+        <v>0.7594521003439851</v>
       </c>
       <c r="H18">
-        <v>0.3227259959597859</v>
+        <v>0.8590354722821658</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1122136342361415</v>
+        <v>0.07742959455433862</v>
       </c>
       <c r="K18">
-        <v>1.062114058911675</v>
+        <v>0.3272890677203009</v>
       </c>
       <c r="L18">
-        <v>0.3771570002284648</v>
+        <v>0.4406745468027111</v>
       </c>
       <c r="M18">
-        <v>0.3650496205838323</v>
+        <v>0.2432245911110513</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.392613136746689</v>
+        <v>3.247377737413217</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.378681872870544</v>
+        <v>0.6251184537301526</v>
       </c>
       <c r="C19">
-        <v>0.1604230137783382</v>
+        <v>0.3658514765388166</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1424301412769218</v>
+        <v>0.2837057662581906</v>
       </c>
       <c r="F19">
-        <v>1.12602301831356</v>
+        <v>2.059549340223384</v>
       </c>
       <c r="G19">
-        <v>0.3628334073440698</v>
+        <v>0.7598957531357726</v>
       </c>
       <c r="H19">
-        <v>0.323171930172883</v>
+        <v>0.8595281274374216</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1116359485873559</v>
+        <v>0.07723125435560974</v>
       </c>
       <c r="K19">
-        <v>1.05348406163003</v>
+        <v>0.3245530132597594</v>
       </c>
       <c r="L19">
-        <v>0.3745127552832059</v>
+        <v>0.4400842698768201</v>
       </c>
       <c r="M19">
-        <v>0.3619953225858339</v>
+        <v>0.24239420427174</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.393302609864023</v>
+        <v>3.249331174558847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.432706989397559</v>
+        <v>0.6409507026596089</v>
       </c>
       <c r="C20">
-        <v>0.1587236208887504</v>
+        <v>0.3650087946105369</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1447347299691302</v>
+        <v>0.2838358933986953</v>
       </c>
       <c r="F20">
-        <v>1.142512060005032</v>
+        <v>2.059201584603613</v>
       </c>
       <c r="G20">
-        <v>0.3633614986658102</v>
+        <v>0.757927995611773</v>
       </c>
       <c r="H20">
-        <v>0.3212060650430075</v>
+        <v>0.857332479351065</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1142357527586952</v>
+        <v>0.07812304766473233</v>
       </c>
       <c r="K20">
-        <v>1.092328343005221</v>
+        <v>0.3368607395351262</v>
       </c>
       <c r="L20">
-        <v>0.3864318202198262</v>
+        <v>0.4427502620950463</v>
       </c>
       <c r="M20">
-        <v>0.375751559384824</v>
+        <v>0.246135208379286</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.390434787712763</v>
+        <v>3.240645557970012</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.614770325973637</v>
+        <v>0.6942320074623467</v>
       </c>
       <c r="C21">
-        <v>0.1531788867515349</v>
+        <v>0.3622749388547195</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.152678602405949</v>
+        <v>0.2843853020397482</v>
       </c>
       <c r="F21">
-        <v>1.200424946480766</v>
+        <v>2.05915235904483</v>
       </c>
       <c r="G21">
-        <v>0.3664165995142739</v>
+        <v>0.7518194621566963</v>
       </c>
       <c r="H21">
-        <v>0.3153356411448343</v>
+        <v>0.8503288675245102</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1229752382910902</v>
+        <v>0.08110592834913177</v>
       </c>
       <c r="K21">
-        <v>1.223019889978502</v>
+        <v>0.3781263253268321</v>
       </c>
       <c r="L21">
-        <v>0.4268401022087573</v>
+        <v>0.4518762257746545</v>
       </c>
       <c r="M21">
-        <v>0.4221885728327734</v>
+        <v>0.2587766090580388</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.385043103541264</v>
+        <v>3.213301477405508</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.734235124263904</v>
+        <v>0.729115396584092</v>
       </c>
       <c r="C22">
-        <v>0.1496798594614557</v>
+        <v>0.3605606729887398</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1580277344129826</v>
+        <v>0.2848276804667584</v>
       </c>
       <c r="F22">
-        <v>1.2402566583621</v>
+        <v>2.059952908581408</v>
       </c>
       <c r="G22">
-        <v>0.3694231698715171</v>
+        <v>0.7482020861764411</v>
       </c>
       <c r="H22">
-        <v>0.3120704515745203</v>
+        <v>0.8460296512664414</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1286926065147753</v>
+        <v>0.08304525318536093</v>
       </c>
       <c r="K22">
-        <v>1.30861187295875</v>
+        <v>0.4050284032836942</v>
       </c>
       <c r="L22">
-        <v>0.4535411423984357</v>
+        <v>0.4579652428279815</v>
       </c>
       <c r="M22">
-        <v>0.4527200696776319</v>
+        <v>0.2670912299063701</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.384849773872716</v>
+        <v>3.196800364979211</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.670426404327287</v>
+        <v>0.7104921495756003</v>
       </c>
       <c r="C23">
-        <v>0.1515358203138693</v>
+        <v>0.3614689882117794</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1551578938475444</v>
+        <v>0.2845839723385986</v>
       </c>
       <c r="F23">
-        <v>1.218809054454908</v>
+        <v>2.059449537784303</v>
       </c>
       <c r="G23">
-        <v>0.3677224382946918</v>
+        <v>0.7500984368964723</v>
       </c>
       <c r="H23">
-        <v>0.3137592672535092</v>
+        <v>0.8482988015877311</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.125640476897054</v>
+        <v>0.08201113870555332</v>
       </c>
       <c r="K23">
-        <v>1.262910697644969</v>
+        <v>0.3906765989455039</v>
       </c>
       <c r="L23">
-        <v>0.4392621152743175</v>
+        <v>0.454704075504921</v>
       </c>
       <c r="M23">
-        <v>0.4364068478495113</v>
+        <v>0.2626488012672468</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.38463712344506</v>
+        <v>3.205482003428955</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.429738301595279</v>
+        <v>0.6400809333715358</v>
       </c>
       <c r="C24">
-        <v>0.158816327204887</v>
+        <v>0.3650547037024232</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1446074367309329</v>
+        <v>0.2838283245367847</v>
       </c>
       <c r="F24">
-        <v>1.141597382319844</v>
+        <v>2.059216467649321</v>
       </c>
       <c r="G24">
-        <v>0.3633278164928271</v>
+        <v>0.7580341639611774</v>
       </c>
       <c r="H24">
-        <v>0.3213113164034596</v>
+        <v>0.8574516480989161</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1140929725740705</v>
+        <v>0.07807412473643183</v>
       </c>
       <c r="K24">
-        <v>1.09019462940222</v>
+        <v>0.3361851770996793</v>
       </c>
       <c r="L24">
-        <v>0.3857759755302936</v>
+        <v>0.4426032217738936</v>
       </c>
       <c r="M24">
-        <v>0.3749953613874908</v>
+        <v>0.2459294962873813</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.390576722659105</v>
+        <v>3.241115613487509</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.171725300230236</v>
+        <v>0.5644181898633747</v>
       </c>
       <c r="C25">
-        <v>0.1671937708610471</v>
+        <v>0.3692346344538358</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1338536387289722</v>
+        <v>0.2833729454683436</v>
       </c>
       <c r="F25">
-        <v>1.066124466246251</v>
+        <v>2.062549395341037</v>
       </c>
       <c r="G25">
-        <v>0.36257282540668</v>
+        <v>0.7682029936467316</v>
       </c>
       <c r="H25">
-        <v>0.3317592089037404</v>
+        <v>0.8685202067709668</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1016468612879535</v>
+        <v>0.07378479184326636</v>
       </c>
       <c r="K25">
-        <v>0.9043805738272965</v>
+        <v>0.2771358052026187</v>
       </c>
       <c r="L25">
-        <v>0.3291949122473312</v>
+        <v>0.4300920765904408</v>
       </c>
       <c r="M25">
-        <v>0.3094100544218179</v>
+        <v>0.2281280481998991</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.41022099312427</v>
+        <v>3.285435779323421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5089696350451618</v>
+        <v>0.9826478407174193</v>
       </c>
       <c r="C2">
-        <v>0.3725824631726109</v>
+        <v>0.1738021333904545</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2833489666963693</v>
+        <v>0.1264220035974049</v>
       </c>
       <c r="F2">
-        <v>2.068094517207555</v>
+        <v>1.016539806636118</v>
       </c>
       <c r="G2">
-        <v>0.7770739020213142</v>
+        <v>0.3650834242499954</v>
       </c>
       <c r="H2">
-        <v>0.8777017147733304</v>
+        <v>0.3412769500770807</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07059028345345553</v>
+        <v>0.09247437386005686</v>
       </c>
       <c r="K2">
-        <v>0.2334338854878126</v>
+        <v>0.7676775376249623</v>
       </c>
       <c r="L2">
-        <v>0.4213504119095859</v>
+        <v>0.2883369521989465</v>
       </c>
       <c r="M2">
-        <v>0.215225388113204</v>
+        <v>0.2615455473615604</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.323135395211011</v>
+        <v>1.434979842844939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4715632714483036</v>
+        <v>0.8548464427512101</v>
       </c>
       <c r="C3">
-        <v>0.3750206972920722</v>
+        <v>0.1785501117842507</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2835279461376246</v>
+        <v>0.1216645607770523</v>
       </c>
       <c r="F3">
-        <v>2.073785284769158</v>
+        <v>0.9863302451370259</v>
       </c>
       <c r="G3">
-        <v>0.7839489105253818</v>
+        <v>0.3685306543479001</v>
       </c>
       <c r="H3">
-        <v>0.8845694471904721</v>
+        <v>0.3487941622176862</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06840293147484644</v>
+        <v>0.08624508944152609</v>
       </c>
       <c r="K3">
-        <v>0.2036824312599208</v>
+        <v>0.6749625406371393</v>
       </c>
       <c r="L3">
-        <v>0.4157219087694983</v>
+        <v>0.2610768196590953</v>
       </c>
       <c r="M3">
-        <v>0.2066109941149605</v>
+        <v>0.2293092818482734</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.35184895133284</v>
+        <v>1.457676792453128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4486837299064916</v>
+        <v>0.7764764576707819</v>
       </c>
       <c r="C4">
-        <v>0.3766016061303468</v>
+        <v>0.1815966568536282</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2837345105077915</v>
+        <v>0.1188736151650041</v>
       </c>
       <c r="F4">
-        <v>2.078234508088492</v>
+        <v>0.9693507678343778</v>
       </c>
       <c r="G4">
-        <v>0.7885959409305201</v>
+        <v>0.3714565270209675</v>
       </c>
       <c r="H4">
-        <v>0.8891051468936695</v>
+        <v>0.3539138511205522</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06704894626164659</v>
+        <v>0.08241155193484317</v>
       </c>
       <c r="K4">
-        <v>0.1853510153708555</v>
+        <v>0.6179592176433033</v>
       </c>
       <c r="L4">
-        <v>0.4124128509810987</v>
+        <v>0.2445293570039695</v>
       </c>
       <c r="M4">
-        <v>0.2013867044975868</v>
+        <v>0.2095965280584515</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.371041113095885</v>
+        <v>1.474375228591924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4393830043618436</v>
+        <v>0.7445566307598881</v>
       </c>
       <c r="C5">
-        <v>0.3772669542948286</v>
+        <v>0.1828709109909532</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2838430591478591</v>
+        <v>0.1177679703706147</v>
       </c>
       <c r="F5">
-        <v>2.080288073649221</v>
+        <v>0.9628113883690403</v>
       </c>
       <c r="G5">
-        <v>0.790596705563523</v>
+        <v>0.3728449874870279</v>
       </c>
       <c r="H5">
-        <v>0.8910337465252738</v>
+        <v>0.3561237650266165</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06649446100686163</v>
+        <v>0.08084685867939356</v>
       </c>
       <c r="K5">
-        <v>0.1778652393571605</v>
+        <v>0.5947054371953868</v>
       </c>
       <c r="L5">
-        <v>0.4111014987260972</v>
+        <v>0.23783108037793</v>
       </c>
       <c r="M5">
-        <v>0.1992742932564937</v>
+        <v>0.2015810968123795</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.379255002289199</v>
+        <v>1.481852396722175</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378400285573036</v>
+        <v>0.7392571236916581</v>
       </c>
       <c r="C6">
-        <v>0.3773787112322413</v>
+        <v>0.1830844716629567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2838625574397646</v>
+        <v>0.1175862632863947</v>
       </c>
       <c r="F6">
-        <v>2.080643599635529</v>
+        <v>0.9617480554376101</v>
       </c>
       <c r="G6">
-        <v>0.7909353974172362</v>
+        <v>0.373087177807399</v>
       </c>
       <c r="H6">
-        <v>0.8913588391728595</v>
+        <v>0.3564980948460814</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06640222532357853</v>
+        <v>0.0805868833497918</v>
       </c>
       <c r="K6">
-        <v>0.1766213058097179</v>
+        <v>0.5908425365685019</v>
       </c>
       <c r="L6">
-        <v>0.4108859968205394</v>
+        <v>0.2367214686832284</v>
       </c>
       <c r="M6">
-        <v>0.1989245328571236</v>
+        <v>0.2002511360862229</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.380642649168948</v>
+        <v>1.483133955656839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4485582035053142</v>
+        <v>0.7760459197663181</v>
       </c>
       <c r="C7">
-        <v>0.3766104937062984</v>
+        <v>0.1816137095542842</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2837358756669595</v>
+        <v>0.1188585770870425</v>
       </c>
       <c r="F7">
-        <v>2.078261229121019</v>
+        <v>0.9692610562945063</v>
       </c>
       <c r="G7">
-        <v>0.788622490446194</v>
+        <v>0.3714744675925843</v>
       </c>
       <c r="H7">
-        <v>0.8891308315666819</v>
+        <v>0.3539431584166621</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06704147927942472</v>
+        <v>0.08239046042485043</v>
       </c>
       <c r="K7">
-        <v>0.1852501219855895</v>
+        <v>0.6176457149383907</v>
       </c>
       <c r="L7">
-        <v>0.4123950151003442</v>
+        <v>0.2444388434673073</v>
       </c>
       <c r="M7">
-        <v>0.2013581486042462</v>
+        <v>0.2094883608574492</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.371150297305363</v>
+        <v>1.474473374350538</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4960540490984044</v>
+        <v>0.9385556077109527</v>
       </c>
       <c r="C8">
-        <v>0.3734057911422308</v>
+        <v>0.1754118418573167</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2833906524924465</v>
+        <v>0.124753986347276</v>
       </c>
       <c r="F8">
-        <v>2.069858652818596</v>
+        <v>1.005788773829835</v>
       </c>
       <c r="G8">
-        <v>0.779356043642295</v>
+        <v>0.3660995457828733</v>
       </c>
       <c r="H8">
-        <v>0.8800035722449948</v>
+        <v>0.3437623183587988</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06983837070048793</v>
+        <v>0.09032814199331085</v>
       </c>
       <c r="K8">
-        <v>0.2231891338962697</v>
+        <v>0.7357218089001378</v>
       </c>
       <c r="L8">
-        <v>0.4193793305002345</v>
+        <v>0.2788963383691652</v>
       </c>
       <c r="M8">
-        <v>0.2122417679332287</v>
+        <v>0.2504122002988218</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.332711754468491</v>
+        <v>1.44221874935522</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5898657433008623</v>
+        <v>1.258467196089043</v>
       </c>
       <c r="C9">
-        <v>0.3677847633633622</v>
+        <v>0.1643027500450351</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2834781154435078</v>
+        <v>0.1373971488863788</v>
       </c>
       <c r="F9">
-        <v>2.060947110676466</v>
+        <v>1.090570696618272</v>
       </c>
       <c r="G9">
-        <v>0.7645626694107079</v>
+        <v>0.3623275885151429</v>
       </c>
       <c r="H9">
-        <v>0.8646316951452846</v>
+        <v>0.3279463874295345</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07523532708048464</v>
+        <v>0.1058395942359311</v>
       </c>
       <c r="K9">
-        <v>0.2970621964340125</v>
+        <v>0.9669355069061396</v>
       </c>
       <c r="L9">
-        <v>0.4342337467224553</v>
+        <v>0.3481198152538951</v>
       </c>
       <c r="M9">
-        <v>0.2340930269317241</v>
+        <v>0.3314275647401956</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.269719825073366</v>
+        <v>1.401934534831256</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6591703046944417</v>
+        <v>1.494916137831893</v>
       </c>
       <c r="C10">
-        <v>0.3640569675008276</v>
+        <v>0.1567984378178444</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2840052083290274</v>
+        <v>0.1474191860818017</v>
       </c>
       <c r="F10">
-        <v>2.058998047223355</v>
+        <v>1.161903478197857</v>
       </c>
       <c r="G10">
-        <v>0.7557536034308256</v>
+        <v>0.3641891358303653</v>
       </c>
       <c r="H10">
-        <v>0.8548734037537571</v>
+        <v>0.3190727095495163</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07914609643337656</v>
+        <v>0.1172256468562551</v>
       </c>
       <c r="K10">
-        <v>0.3509972601552249</v>
+        <v>1.137020136543924</v>
       </c>
       <c r="L10">
-        <v>0.44584526976017</v>
+        <v>0.4001982345630637</v>
       </c>
       <c r="M10">
-        <v>0.2504493659439362</v>
+        <v>0.391605317044089</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.23098109710763</v>
+        <v>1.387868910136376</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6907758172211231</v>
+        <v>1.60294660330581</v>
       </c>
       <c r="C11">
-        <v>0.3624478619589251</v>
+        <v>0.1535309434001473</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2843448389981944</v>
+        <v>0.152154843228903</v>
       </c>
       <c r="F11">
-        <v>2.05910698439466</v>
+        <v>1.196559075185689</v>
       </c>
       <c r="G11">
-        <v>0.7521934378389616</v>
+        <v>0.3661609484620243</v>
       </c>
       <c r="H11">
-        <v>0.8507664796376488</v>
+        <v>0.3156832380023005</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08091323077661627</v>
+        <v>0.1224086528291224</v>
       </c>
       <c r="K11">
-        <v>0.3754562422358561</v>
+        <v>1.214541838295872</v>
       </c>
       <c r="L11">
-        <v>0.4512775891581668</v>
+        <v>0.4242051612781097</v>
       </c>
       <c r="M11">
-        <v>0.2579543688902888</v>
+        <v>0.4191693197669295</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.214993488533523</v>
+        <v>1.38520192540355</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7027546611865318</v>
+        <v>1.643935884274612</v>
       </c>
       <c r="C12">
-        <v>0.3618509636337777</v>
+        <v>0.1523149916536291</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2844877472274838</v>
+        <v>0.1539750012491936</v>
       </c>
       <c r="F12">
-        <v>2.059291122776472</v>
+        <v>1.210020649948589</v>
       </c>
       <c r="G12">
-        <v>0.7509095982719529</v>
+        <v>0.3670799666091042</v>
       </c>
       <c r="H12">
-        <v>0.8492589840950586</v>
+        <v>0.3144973616883746</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08158066552116594</v>
+        <v>0.1243722694345664</v>
       </c>
       <c r="K12">
-        <v>0.3847068125993189</v>
+        <v>1.243927346031285</v>
       </c>
       <c r="L12">
-        <v>0.4533560949781759</v>
+        <v>0.4333457701938244</v>
       </c>
       <c r="M12">
-        <v>0.2608054138954756</v>
+        <v>0.4296381402387084</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.20917434493191</v>
+        <v>1.38476058006529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7001743470515862</v>
+        <v>1.635104311269998</v>
       </c>
       <c r="C13">
-        <v>0.3619789638001656</v>
+        <v>0.1525759121594614</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2844563344763635</v>
+        <v>0.1535817782934821</v>
       </c>
       <c r="F13">
-        <v>2.059245114790897</v>
+        <v>1.207106066381954</v>
       </c>
       <c r="G13">
-        <v>0.7511832351909433</v>
+        <v>0.3668741997025293</v>
       </c>
       <c r="H13">
-        <v>0.8495815293549285</v>
+        <v>0.314748342739712</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08143699940758609</v>
+        <v>0.1239493211916809</v>
       </c>
       <c r="K13">
-        <v>0.3827150574276459</v>
+        <v>1.237597191594233</v>
       </c>
       <c r="L13">
-        <v>0.4529075026413807</v>
+        <v>0.4313748954254635</v>
       </c>
       <c r="M13">
-        <v>0.2601909904421262</v>
+        <v>0.4273820539654025</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.210417150310946</v>
+        <v>1.384829812969244</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6917611174391141</v>
+        <v>1.606317124781185</v>
       </c>
       <c r="C14">
-        <v>0.3623985057326777</v>
+        <v>0.1534304758400129</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2843563099529369</v>
+        <v>0.1523040415010968</v>
       </c>
       <c r="F14">
-        <v>2.059119271504116</v>
+        <v>1.197659662892647</v>
       </c>
       <c r="G14">
-        <v>0.7520865264334446</v>
+        <v>0.3662330399316716</v>
       </c>
       <c r="H14">
-        <v>0.8506415012762147</v>
+        <v>0.3155836911018213</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08096817609426665</v>
+        <v>0.1225701796534366</v>
       </c>
       <c r="K14">
-        <v>0.3762175260781362</v>
+        <v>1.216958756679134</v>
       </c>
       <c r="L14">
-        <v>0.4514481612031034</v>
+        <v>0.4249561432415874</v>
       </c>
       <c r="M14">
-        <v>0.2581887455854925</v>
+        <v>0.4200299535045104</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.214510034403943</v>
+        <v>1.385154030030421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6866091188982182</v>
+        <v>1.588695027859842</v>
       </c>
       <c r="C15">
-        <v>0.3626571057856136</v>
+        <v>0.1539567153057444</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2842969021760915</v>
+        <v>0.1515249350200953</v>
       </c>
       <c r="F15">
-        <v>2.059060788641716</v>
+        <v>1.191918164637471</v>
       </c>
       <c r="G15">
-        <v>0.7526481951378301</v>
+        <v>0.3658630789212225</v>
       </c>
       <c r="H15">
-        <v>0.8512969758809135</v>
+        <v>0.3161082227804712</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08068078068964724</v>
+        <v>0.1217255493072287</v>
       </c>
       <c r="K15">
-        <v>0.3722360849874633</v>
+        <v>1.204321244894118</v>
       </c>
       <c r="L15">
-        <v>0.4505570542384305</v>
+        <v>0.4210310758504221</v>
       </c>
       <c r="M15">
-        <v>0.2569634871528947</v>
+        <v>0.415530724134058</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.217047648125202</v>
+        <v>1.385427652221722</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6571063243906394</v>
+        <v>1.487866622555316</v>
       </c>
       <c r="C16">
-        <v>0.3641638680884629</v>
+        <v>0.1570149485043189</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2839850167289164</v>
+        <v>0.1471133771739517</v>
       </c>
       <c r="F16">
-        <v>2.059010937857423</v>
+        <v>1.159684812591564</v>
       </c>
       <c r="G16">
-        <v>0.7559952677836819</v>
+        <v>0.3640837991445949</v>
       </c>
       <c r="H16">
-        <v>0.8551484800454148</v>
+        <v>0.3193076276275804</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07903036811700304</v>
+        <v>0.1168870305652874</v>
       </c>
       <c r="K16">
-        <v>0.3493972259228713</v>
+        <v>1.131957607723223</v>
       </c>
       <c r="L16">
-        <v>0.4454932605561197</v>
+        <v>0.3986360443464747</v>
       </c>
       <c r="M16">
-        <v>0.2499601755417515</v>
+        <v>0.3898080617149233</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.2320588159522</v>
+        <v>1.38812098210019</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6390268789011202</v>
+        <v>1.426140734100954</v>
       </c>
       <c r="C17">
-        <v>0.3651103988632762</v>
+        <v>0.1589287760593159</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2838192163259059</v>
+        <v>0.1444532789061199</v>
       </c>
       <c r="F17">
-        <v>2.059235150612054</v>
+        <v>1.14049026784987</v>
       </c>
       <c r="G17">
-        <v>0.758163123223774</v>
+        <v>0.3632877188044077</v>
       </c>
       <c r="H17">
-        <v>0.8575962885482511</v>
+        <v>0.3214392912954409</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0780148255222386</v>
+        <v>0.1139199339121717</v>
       </c>
       <c r="K17">
-        <v>0.3353663886092306</v>
+        <v>1.08760879417602</v>
       </c>
       <c r="L17">
-        <v>0.4424251156054311</v>
+        <v>0.3849813353429568</v>
       </c>
       <c r="M17">
-        <v>0.2456802280182018</v>
+        <v>0.3740790169952533</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.241686351290724</v>
+        <v>1.390751138886614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6286354965614009</v>
+        <v>1.39068091143065</v>
       </c>
       <c r="C18">
-        <v>0.3656629795688584</v>
+        <v>0.1600433035640911</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2837332546671512</v>
+        <v>0.1429397881801329</v>
       </c>
       <c r="F18">
-        <v>2.05945783676961</v>
+        <v>1.129656375899174</v>
       </c>
       <c r="G18">
-        <v>0.7594521003439851</v>
+        <v>0.3629350536317872</v>
       </c>
       <c r="H18">
-        <v>0.8590354722821658</v>
+        <v>0.322725995959793</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07742959455433862</v>
+        <v>0.1122136342362339</v>
       </c>
       <c r="K18">
-        <v>0.3272890677203009</v>
+        <v>1.062114058911789</v>
       </c>
       <c r="L18">
-        <v>0.4406745468027111</v>
+        <v>0.3771570002285642</v>
       </c>
       <c r="M18">
-        <v>0.2432245911110513</v>
+        <v>0.3650496205838181</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.247377737413217</v>
+        <v>1.392613136746675</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6251184537301526</v>
+        <v>1.37868187287043</v>
       </c>
       <c r="C19">
-        <v>0.3658514765388166</v>
+        <v>0.1604230137778693</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2837057662581906</v>
+        <v>0.1424301412769218</v>
       </c>
       <c r="F19">
-        <v>2.059549340223384</v>
+        <v>1.12602301831356</v>
       </c>
       <c r="G19">
-        <v>0.7598957531357726</v>
+        <v>0.3628334073440769</v>
       </c>
       <c r="H19">
-        <v>0.8595281274374216</v>
+        <v>0.323171930172883</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07723125435560974</v>
+        <v>0.1116359485873062</v>
       </c>
       <c r="K19">
-        <v>0.3245530132597594</v>
+        <v>1.053484061630144</v>
       </c>
       <c r="L19">
-        <v>0.4400842698768201</v>
+        <v>0.3745127552832628</v>
       </c>
       <c r="M19">
-        <v>0.24239420427174</v>
+        <v>0.3619953225858339</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.249331174558847</v>
+        <v>1.393302609864037</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6409507026596089</v>
+        <v>1.43270698939773</v>
       </c>
       <c r="C20">
-        <v>0.3650087946105369</v>
+        <v>0.1587236208885088</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2838358933986953</v>
+        <v>0.144734729969116</v>
       </c>
       <c r="F20">
-        <v>2.059201584603613</v>
+        <v>1.14251206000506</v>
       </c>
       <c r="G20">
-        <v>0.757927995611773</v>
+        <v>0.3633614986658031</v>
       </c>
       <c r="H20">
-        <v>0.857332479351065</v>
+        <v>0.3212060650430075</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07812304766473233</v>
+        <v>0.1142357527587876</v>
       </c>
       <c r="K20">
-        <v>0.3368607395351262</v>
+        <v>1.092328343005278</v>
       </c>
       <c r="L20">
-        <v>0.4427502620950463</v>
+        <v>0.3864318202198405</v>
       </c>
       <c r="M20">
-        <v>0.246135208379286</v>
+        <v>0.375751559384824</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.240645557970012</v>
+        <v>1.390434787712792</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6942320074623467</v>
+        <v>1.614770325973524</v>
       </c>
       <c r="C21">
-        <v>0.3622749388547195</v>
+        <v>0.1531788867517641</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2843853020397482</v>
+        <v>0.1526786024059739</v>
       </c>
       <c r="F21">
-        <v>2.05915235904483</v>
+        <v>1.20042494648078</v>
       </c>
       <c r="G21">
-        <v>0.7518194621566963</v>
+        <v>0.366416599514217</v>
       </c>
       <c r="H21">
-        <v>0.8503288675245102</v>
+        <v>0.3153356411448272</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08110592834913177</v>
+        <v>0.1229752382911897</v>
       </c>
       <c r="K21">
-        <v>0.3781263253268321</v>
+        <v>1.223019889978417</v>
       </c>
       <c r="L21">
-        <v>0.4518762257746545</v>
+        <v>0.4268401022088142</v>
       </c>
       <c r="M21">
-        <v>0.2587766090580388</v>
+        <v>0.4221885728327663</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.213301477405508</v>
+        <v>1.385043103541321</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.729115396584092</v>
+        <v>1.734235124263876</v>
       </c>
       <c r="C22">
-        <v>0.3605606729887398</v>
+        <v>0.1496798594612212</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2848276804667584</v>
+        <v>0.1580277344129684</v>
       </c>
       <c r="F22">
-        <v>2.059952908581408</v>
+        <v>1.240256658362085</v>
       </c>
       <c r="G22">
-        <v>0.7482020861764411</v>
+        <v>0.369423169871574</v>
       </c>
       <c r="H22">
-        <v>0.8460296512664414</v>
+        <v>0.3120704515745203</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08304525318536093</v>
+        <v>0.1286926065148037</v>
       </c>
       <c r="K22">
-        <v>0.4050284032836942</v>
+        <v>1.308611872958608</v>
       </c>
       <c r="L22">
-        <v>0.4579652428279815</v>
+        <v>0.4535411423984783</v>
       </c>
       <c r="M22">
-        <v>0.2670912299063701</v>
+        <v>0.452720069677639</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.196800364979211</v>
+        <v>1.38484977387273</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7104921495756003</v>
+        <v>1.67042640432723</v>
       </c>
       <c r="C23">
-        <v>0.3614689882117794</v>
+        <v>0.1515358203137218</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2845839723385986</v>
+        <v>0.1551578938475586</v>
       </c>
       <c r="F23">
-        <v>2.059449537784303</v>
+        <v>1.218809054454923</v>
       </c>
       <c r="G23">
-        <v>0.7500984368964723</v>
+        <v>0.367722438294777</v>
       </c>
       <c r="H23">
-        <v>0.8482988015877311</v>
+        <v>0.3137592672533955</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08201113870555332</v>
+        <v>0.125640476897054</v>
       </c>
       <c r="K23">
-        <v>0.3906765989455039</v>
+        <v>1.262910697644884</v>
       </c>
       <c r="L23">
-        <v>0.454704075504921</v>
+        <v>0.4392621152743033</v>
       </c>
       <c r="M23">
-        <v>0.2626488012672468</v>
+        <v>0.4364068478494971</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.205482003428955</v>
+        <v>1.384637123445074</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6400809333715358</v>
+        <v>1.429738301595307</v>
       </c>
       <c r="C24">
-        <v>0.3650547037024232</v>
+        <v>0.1588163272048941</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2838283245367847</v>
+        <v>0.14460743673094</v>
       </c>
       <c r="F24">
-        <v>2.059216467649321</v>
+        <v>1.141597382319844</v>
       </c>
       <c r="G24">
-        <v>0.7580341639611774</v>
+        <v>0.3633278164928271</v>
       </c>
       <c r="H24">
-        <v>0.8574516480989161</v>
+        <v>0.3213113164034596</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07807412473643183</v>
+        <v>0.1140929725739852</v>
       </c>
       <c r="K24">
-        <v>0.3361851770996793</v>
+        <v>1.09019462940222</v>
       </c>
       <c r="L24">
-        <v>0.4426032217738936</v>
+        <v>0.3857759755301942</v>
       </c>
       <c r="M24">
-        <v>0.2459294962873813</v>
+        <v>0.3749953613874979</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.241115613487509</v>
+        <v>1.390576722659105</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5644181898633747</v>
+        <v>1.171725300230321</v>
       </c>
       <c r="C25">
-        <v>0.3692346344538358</v>
+        <v>0.1671937708610418</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2833729454683436</v>
+        <v>0.1338536387289864</v>
       </c>
       <c r="F25">
-        <v>2.062549395341037</v>
+        <v>1.066124466246251</v>
       </c>
       <c r="G25">
-        <v>0.7682029936467316</v>
+        <v>0.3625728254066729</v>
       </c>
       <c r="H25">
-        <v>0.8685202067709668</v>
+        <v>0.3317592089037404</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07378479184326636</v>
+        <v>0.1016468612878612</v>
       </c>
       <c r="K25">
-        <v>0.2771358052026187</v>
+        <v>0.9043805738272965</v>
       </c>
       <c r="L25">
-        <v>0.4300920765904408</v>
+        <v>0.3291949122472317</v>
       </c>
       <c r="M25">
-        <v>0.2281280481998991</v>
+        <v>0.3094100544218392</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.285435779323421</v>
+        <v>1.410220993124298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9826478407174193</v>
+        <v>2.397858086084398</v>
       </c>
       <c r="C2">
-        <v>0.1738021333904545</v>
+        <v>0.6620281703968374</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1264220035974049</v>
+        <v>0.2641803095605368</v>
       </c>
       <c r="F2">
-        <v>1.016539806636118</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3650834242499954</v>
+        <v>0.1164508739035099</v>
       </c>
       <c r="H2">
-        <v>0.3412769500770807</v>
+        <v>0.001569525803885252</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003711492867069843</v>
       </c>
       <c r="J2">
-        <v>0.09247437386005686</v>
+        <v>0.1451865783596205</v>
       </c>
       <c r="K2">
-        <v>0.7676775376249623</v>
+        <v>0.1129629581932505</v>
       </c>
       <c r="L2">
-        <v>0.2883369521989465</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2615455473615604</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.434979842844939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9430775266525089</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.5009247930377398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8548464427512101</v>
+        <v>2.097106210399943</v>
       </c>
       <c r="C3">
-        <v>0.1785501117842507</v>
+        <v>0.5921590717653658</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1216645607770523</v>
+        <v>0.2388020885124078</v>
       </c>
       <c r="F3">
-        <v>0.9863302451370259</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.3685306543479001</v>
+        <v>0.1141070854920443</v>
       </c>
       <c r="H3">
-        <v>0.3487941622176862</v>
+        <v>0.0007415268780170958</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002579866824384158</v>
       </c>
       <c r="J3">
-        <v>0.08624508944152609</v>
+        <v>0.1486807380607686</v>
       </c>
       <c r="K3">
-        <v>0.6749625406371393</v>
+        <v>0.1226138583939109</v>
       </c>
       <c r="L3">
-        <v>0.2610768196590953</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2293092818482734</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.457676792453128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8216970079182602</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.5030010388609298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7764764576707819</v>
+        <v>1.911902500970967</v>
       </c>
       <c r="C4">
-        <v>0.1815966568536282</v>
+        <v>0.5495298990399817</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1188736151650041</v>
+        <v>0.2231902178249285</v>
       </c>
       <c r="F4">
-        <v>0.9693507678343778</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3714565270209675</v>
+        <v>0.1130088526642581</v>
       </c>
       <c r="H4">
-        <v>0.3539138511205522</v>
+        <v>0.0003747799658734285</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002005265146505675</v>
       </c>
       <c r="J4">
-        <v>0.08241155193484317</v>
+        <v>0.1510702753049316</v>
       </c>
       <c r="K4">
-        <v>0.6179592176433033</v>
+        <v>0.1288812917456401</v>
       </c>
       <c r="L4">
-        <v>0.2445293570039695</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2095965280584515</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.474375228591924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7471789432671443</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.5055030220673657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7445566307598881</v>
+        <v>1.836162458545942</v>
       </c>
       <c r="C5">
-        <v>0.1828709109909532</v>
+        <v>0.5331728836852392</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1177679703706147</v>
+        <v>0.216743466709552</v>
       </c>
       <c r="F5">
-        <v>0.9628113883690403</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.3728449874870279</v>
+        <v>0.1123608047497804</v>
       </c>
       <c r="H5">
-        <v>0.3561237650266165</v>
+        <v>0.0002584581386272378</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001857020685958055</v>
       </c>
       <c r="J5">
-        <v>0.08084685867939356</v>
+        <v>0.1519489848228659</v>
       </c>
       <c r="K5">
-        <v>0.5947054371953868</v>
+        <v>0.1314351951257424</v>
       </c>
       <c r="L5">
-        <v>0.23783108037793</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2015810968123795</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.481852396722175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7169955719407213</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.5058965298875435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7392571236916581</v>
+        <v>1.823422142519007</v>
       </c>
       <c r="C6">
-        <v>0.1830844716629567</v>
+        <v>0.5316280607571855</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1175862632863947</v>
+        <v>0.2155805104464612</v>
       </c>
       <c r="F6">
-        <v>0.9617480554376101</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.373087177807399</v>
+        <v>0.1119148862597541</v>
       </c>
       <c r="H6">
-        <v>0.3564980948460814</v>
+        <v>0.0002408415551875542</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001912098774704774</v>
       </c>
       <c r="J6">
-        <v>0.0805868833497918</v>
+        <v>0.1519101656978101</v>
       </c>
       <c r="K6">
-        <v>0.5908425365685019</v>
+        <v>0.1317642147211644</v>
       </c>
       <c r="L6">
-        <v>0.2367214686832284</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2002511360862229</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.483133955656839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7122119369182158</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.5048573828571676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7760459197663181</v>
+        <v>1.91045781385796</v>
       </c>
       <c r="C7">
-        <v>0.1816137095542842</v>
+        <v>0.5525071643509705</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1188585770870425</v>
+        <v>0.2228529867545035</v>
       </c>
       <c r="F7">
-        <v>0.9692610562945063</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3714744675925843</v>
+        <v>0.1120631856187657</v>
       </c>
       <c r="H7">
-        <v>0.3539431584166621</v>
+        <v>0.0003722223738805708</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002202068380072753</v>
       </c>
       <c r="J7">
-        <v>0.08239046042485043</v>
+        <v>0.1505691641805136</v>
       </c>
       <c r="K7">
-        <v>0.6176457149383907</v>
+        <v>0.1286455723704942</v>
       </c>
       <c r="L7">
-        <v>0.2444388434673073</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2094883608574492</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.474473374350538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.747397794272338</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.5024470219054535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9385556077109527</v>
+        <v>2.293705726524479</v>
       </c>
       <c r="C8">
-        <v>0.1754118418573167</v>
+        <v>0.6421575422220087</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.124753986347276</v>
+        <v>0.2551054472688463</v>
       </c>
       <c r="F8">
-        <v>1.005788773829835</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.3660995457828733</v>
+        <v>0.1143347528170793</v>
       </c>
       <c r="H8">
-        <v>0.3437623183587988</v>
+        <v>0.001251373897738994</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003533695666943615</v>
       </c>
       <c r="J8">
-        <v>0.09032814199331085</v>
+        <v>0.1456684949105878</v>
       </c>
       <c r="K8">
-        <v>0.7357218089001378</v>
+        <v>0.1158803734015299</v>
       </c>
       <c r="L8">
-        <v>0.2788963383691652</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2504122002988218</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.44221874935522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9020540343488719</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.4973545279699181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.258467196089043</v>
+        <v>3.04203314391907</v>
       </c>
       <c r="C9">
-        <v>0.1643027500450351</v>
+        <v>0.8145607329282427</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1373971488863788</v>
+        <v>0.3186711946523957</v>
       </c>
       <c r="F9">
-        <v>1.090570696618272</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.3623275885151429</v>
+        <v>0.1234049448253529</v>
       </c>
       <c r="H9">
-        <v>0.3279463874295345</v>
+        <v>0.00420845301300099</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.006899054033381979</v>
       </c>
       <c r="J9">
-        <v>0.1058395942359311</v>
+        <v>0.1390045318770206</v>
       </c>
       <c r="K9">
-        <v>0.9669355069061396</v>
+        <v>0.09415325078509307</v>
       </c>
       <c r="L9">
-        <v>0.3481198152538951</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3314275647401956</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.401934534831256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.204579754113993</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.5032717426692699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.494916137831893</v>
+        <v>3.60854753016531</v>
       </c>
       <c r="C10">
-        <v>0.1567984378178444</v>
+        <v>0.9476324854843767</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1474191860818017</v>
+        <v>0.3388888707623963</v>
       </c>
       <c r="F10">
-        <v>1.161903478197857</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.3641891358303653</v>
+        <v>0.1271163258850692</v>
       </c>
       <c r="H10">
-        <v>0.3190727095495163</v>
+        <v>0.007145111629897283</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01021345677026808</v>
       </c>
       <c r="J10">
-        <v>0.1172256468562551</v>
+        <v>0.1328283129999761</v>
       </c>
       <c r="K10">
-        <v>1.137020136543924</v>
+        <v>0.07925984613281489</v>
       </c>
       <c r="L10">
-        <v>0.4001982345630637</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.391605317044089</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.387868910136376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.391031540384702</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.4986435046130993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.60294660330581</v>
+        <v>4.035141464210142</v>
       </c>
       <c r="C11">
-        <v>0.1535309434001473</v>
+        <v>1.040821840573216</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.152154843228903</v>
+        <v>0.1667883774337682</v>
       </c>
       <c r="F11">
-        <v>1.196559075185689</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.3661609484620243</v>
+        <v>0.09111345644161872</v>
       </c>
       <c r="H11">
-        <v>0.3156832380023005</v>
+        <v>0.02475213356846595</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01187436814871834</v>
       </c>
       <c r="J11">
-        <v>0.1224086528291224</v>
+        <v>0.1100740538956586</v>
       </c>
       <c r="K11">
-        <v>1.214541838295872</v>
+        <v>0.06959861539286227</v>
       </c>
       <c r="L11">
-        <v>0.4242051612781097</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4191693197669295</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.38520192540355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.171565244788596</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.3748279256067804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.643935884274612</v>
+        <v>4.285130943273487</v>
       </c>
       <c r="C12">
-        <v>0.1523149916536291</v>
+        <v>1.087533919863262</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1539750012491936</v>
+        <v>0.08295876259760071</v>
       </c>
       <c r="F12">
-        <v>1.210020649948589</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.3670799666091042</v>
+        <v>0.0654568375826905</v>
       </c>
       <c r="H12">
-        <v>0.3144973616883746</v>
+        <v>0.06256513039103595</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01226930685707384</v>
       </c>
       <c r="J12">
-        <v>0.1243722694345664</v>
+        <v>0.0946902028287866</v>
       </c>
       <c r="K12">
-        <v>1.243927346031285</v>
+        <v>0.06898986174044452</v>
       </c>
       <c r="L12">
-        <v>0.4333457701938244</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4296381402387084</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.38476058006529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9648242669408944</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.2882700022008464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.635104311269998</v>
+        <v>4.410542674159728</v>
       </c>
       <c r="C13">
-        <v>0.1525759121594614</v>
+        <v>1.105794440948074</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1535817782934821</v>
+        <v>0.06056513047529855</v>
       </c>
       <c r="F13">
-        <v>1.207106066381954</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.3668741997025293</v>
+        <v>0.04457111232993682</v>
       </c>
       <c r="H13">
-        <v>0.314748342739712</v>
+        <v>0.1174244369195492</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01197242862057468</v>
       </c>
       <c r="J13">
-        <v>0.1239493211916809</v>
+        <v>0.08312279951456958</v>
       </c>
       <c r="K13">
-        <v>1.237597191594233</v>
+        <v>0.0744718041388186</v>
       </c>
       <c r="L13">
-        <v>0.4313748954254635</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4273820539654025</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.384829812969244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7580978031420926</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.2197345458872135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.606317124781185</v>
+        <v>4.441609586906793</v>
       </c>
       <c r="C14">
-        <v>0.1534304758400129</v>
+        <v>1.106756771705108</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1523040415010968</v>
+        <v>0.08075640518266347</v>
       </c>
       <c r="F14">
-        <v>1.197659662892647</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3662330399316716</v>
+        <v>0.03255867765488318</v>
       </c>
       <c r="H14">
-        <v>0.3155836911018213</v>
+        <v>0.16617404217385</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01153177173698872</v>
       </c>
       <c r="J14">
-        <v>0.1225701796534366</v>
+        <v>0.07691285372111523</v>
       </c>
       <c r="K14">
-        <v>1.216958756679134</v>
+        <v>0.0815250809281558</v>
       </c>
       <c r="L14">
-        <v>0.4249561432415874</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4200299535045104</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.385154030030421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.617380708970245</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.1812010837172338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.588695027859842</v>
+        <v>4.420875639808457</v>
       </c>
       <c r="C15">
-        <v>0.1539567153057444</v>
+        <v>1.102129539314348</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1515249350200953</v>
+        <v>0.09017280388597015</v>
       </c>
       <c r="F15">
-        <v>1.191918164637471</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.3658630789212225</v>
+        <v>0.02995781350783489</v>
       </c>
       <c r="H15">
-        <v>0.3161082227804712</v>
+        <v>0.1784625952988534</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01136509970511224</v>
       </c>
       <c r="J15">
-        <v>0.1217255493072287</v>
+        <v>0.07588326949339574</v>
       </c>
       <c r="K15">
-        <v>1.204321244894118</v>
+        <v>0.08410796116602448</v>
       </c>
       <c r="L15">
-        <v>0.4210310758504221</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.415530724134058</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.385427652221722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5812130407738252</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.1734966683690402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.487866622555316</v>
+        <v>4.145474241948875</v>
       </c>
       <c r="C16">
-        <v>0.1570149485043189</v>
+        <v>1.041975404724184</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1471133771739517</v>
+        <v>0.08646587674583373</v>
       </c>
       <c r="F16">
-        <v>1.159684812591564</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.3640837991445949</v>
+        <v>0.03179960007276961</v>
       </c>
       <c r="H16">
-        <v>0.3193076276275804</v>
+        <v>0.1647462090540159</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01000258501983797</v>
       </c>
       <c r="J16">
-        <v>0.1168870305652874</v>
+        <v>0.08026661268994317</v>
       </c>
       <c r="K16">
-        <v>1.131957607723223</v>
+        <v>0.08818253390589348</v>
       </c>
       <c r="L16">
-        <v>0.3986360443464747</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3898080617149233</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.38812098210019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5499111212828822</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.1863979951366304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.426140734100954</v>
+        <v>3.918479628206171</v>
       </c>
       <c r="C17">
-        <v>0.1589287760593159</v>
+        <v>0.9956419416138829</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1444532789061199</v>
+        <v>0.06718327240682598</v>
       </c>
       <c r="F17">
-        <v>1.14049026784987</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.3632877188044077</v>
+        <v>0.03930034411351357</v>
       </c>
       <c r="H17">
-        <v>0.3214392912954409</v>
+        <v>0.1265138231191969</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009240418235650694</v>
       </c>
       <c r="J17">
-        <v>0.1139199339121717</v>
+        <v>0.08684790598829295</v>
       </c>
       <c r="K17">
-        <v>1.08760879417602</v>
+        <v>0.08744373763049396</v>
       </c>
       <c r="L17">
-        <v>0.3849813353429568</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3740790169952533</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.390751138886614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5978603014367039</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.2159751523132911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.39068091143065</v>
+        <v>3.710654995214156</v>
       </c>
       <c r="C18">
-        <v>0.1600433035640911</v>
+        <v>0.9533647000847338</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1429397881801329</v>
+        <v>0.06346996871901389</v>
       </c>
       <c r="F18">
-        <v>1.129656375899174</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3629350536317872</v>
+        <v>0.05493611412046562</v>
       </c>
       <c r="H18">
-        <v>0.322725995959793</v>
+        <v>0.07379035777717036</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008657100690602881</v>
       </c>
       <c r="J18">
-        <v>0.1122136342362339</v>
+        <v>0.09717594798229712</v>
       </c>
       <c r="K18">
-        <v>1.062114058911789</v>
+        <v>0.08412871656667509</v>
       </c>
       <c r="L18">
-        <v>0.3771570002285642</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3650496205838181</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.392613136746675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7290649244881422</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.2707022027836601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.37868187287043</v>
+        <v>3.536247519937149</v>
       </c>
       <c r="C19">
-        <v>0.1604230137778693</v>
+        <v>0.9248627818918465</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1424301412769218</v>
+        <v>0.1191131200257516</v>
       </c>
       <c r="F19">
-        <v>1.12602301831356</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.3628334073440769</v>
+        <v>0.07813818200133227</v>
       </c>
       <c r="H19">
-        <v>0.323171930172883</v>
+        <v>0.02936055290942363</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008762961639787292</v>
       </c>
       <c r="J19">
-        <v>0.1116359485873062</v>
+        <v>0.1105628104439269</v>
       </c>
       <c r="K19">
-        <v>1.053484061630144</v>
+        <v>0.08220416117179408</v>
       </c>
       <c r="L19">
-        <v>0.3745127552832628</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3619953225858339</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.393302609864037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9349421128444249</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.3479262836936385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.43270698939773</v>
+        <v>3.45931563028779</v>
       </c>
       <c r="C20">
-        <v>0.1587236208885088</v>
+        <v>0.9230621899672826</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.144734729969116</v>
+        <v>0.3316868044154404</v>
       </c>
       <c r="F20">
-        <v>1.14251206000506</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3633614986658031</v>
+        <v>0.1229621550825968</v>
       </c>
       <c r="H20">
-        <v>0.3212060650430075</v>
+        <v>0.006276191876833259</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.009937258429091322</v>
       </c>
       <c r="J20">
-        <v>0.1142357527587876</v>
+        <v>0.1327266842561059</v>
       </c>
       <c r="K20">
-        <v>1.092328343005278</v>
+        <v>0.08236329084430305</v>
       </c>
       <c r="L20">
-        <v>0.3864318202198405</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.375751559384824</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.390434787712792</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.342510647877887</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.489509969301082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.614770325973524</v>
+        <v>3.864767411244429</v>
       </c>
       <c r="C21">
-        <v>0.1531788867517641</v>
+        <v>1.019177442833865</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1526786024059739</v>
+        <v>0.388351402761522</v>
       </c>
       <c r="F21">
-        <v>1.20042494648078</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.366416599514217</v>
+        <v>0.134390694960949</v>
       </c>
       <c r="H21">
-        <v>0.3153356411448272</v>
+        <v>0.009090621879423999</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01271120528967362</v>
       </c>
       <c r="J21">
-        <v>0.1229752382911897</v>
+        <v>0.1325750284011136</v>
       </c>
       <c r="K21">
-        <v>1.223019889978417</v>
+        <v>0.07296587964581391</v>
       </c>
       <c r="L21">
-        <v>0.4268401022088142</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4221885728327663</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.385043103541321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.54238587342698</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.5137538607878867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.734235124263876</v>
+        <v>4.139706119315804</v>
       </c>
       <c r="C22">
-        <v>0.1496798594612212</v>
+        <v>1.079613892352739</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1580277344129684</v>
+        <v>0.4122927766758693</v>
       </c>
       <c r="F22">
-        <v>1.240256658362085</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.369423169871574</v>
+        <v>0.1411967141534518</v>
       </c>
       <c r="H22">
-        <v>0.3120704515745203</v>
+        <v>0.01106635251216105</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01442485678131877</v>
       </c>
       <c r="J22">
-        <v>0.1286926065148037</v>
+        <v>0.1321761638157994</v>
       </c>
       <c r="K22">
-        <v>1.308611872958608</v>
+        <v>0.06712492484048127</v>
       </c>
       <c r="L22">
-        <v>0.4535411423984783</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.452720069677639</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.38484977387273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.653735595231538</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.5275574053459309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.67042640432723</v>
+        <v>3.993480399450334</v>
       </c>
       <c r="C23">
-        <v>0.1515358203137218</v>
+        <v>1.043365340914619</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1551578938475586</v>
+        <v>0.3997960622014531</v>
       </c>
       <c r="F23">
-        <v>1.218809054454923</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.367722438294777</v>
+        <v>0.1385889846960495</v>
       </c>
       <c r="H23">
-        <v>0.3137592672533955</v>
+        <v>0.009994607791828749</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01323934540128757</v>
       </c>
       <c r="J23">
-        <v>0.125640476897054</v>
+        <v>0.1329339639588483</v>
       </c>
       <c r="K23">
-        <v>1.262910697644884</v>
+        <v>0.07043818906594979</v>
       </c>
       <c r="L23">
-        <v>0.4392621152743033</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4364068478494971</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.384637123445074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.593520051537283</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.5235044791699153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.429738301595307</v>
+        <v>3.438606001430685</v>
       </c>
       <c r="C24">
-        <v>0.1588163272048941</v>
+        <v>0.9131335300178876</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.14460743673094</v>
+        <v>0.3521610085241278</v>
       </c>
       <c r="F24">
-        <v>1.141597382319844</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3633278164928271</v>
+        <v>0.1280874159872454</v>
       </c>
       <c r="H24">
-        <v>0.3213113164034596</v>
+        <v>0.006362488088954954</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.009517152980026644</v>
       </c>
       <c r="J24">
-        <v>0.1140929725739852</v>
+        <v>0.1355374733637902</v>
       </c>
       <c r="K24">
-        <v>1.09019462940222</v>
+        <v>0.08348475569529823</v>
       </c>
       <c r="L24">
-        <v>0.3857759755301942</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3749953613874979</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.390576722659105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.367199624847586</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.5062599768134817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.171725300230321</v>
+        <v>2.839194984352844</v>
       </c>
       <c r="C25">
-        <v>0.1671937708610418</v>
+        <v>0.7735657351525731</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1338536387289864</v>
+        <v>0.3010258940053845</v>
       </c>
       <c r="F25">
-        <v>1.066124466246251</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3625728254066729</v>
+        <v>0.1189306365586589</v>
       </c>
       <c r="H25">
-        <v>0.3317592089037404</v>
+        <v>0.003257781608861032</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006212667271132233</v>
       </c>
       <c r="J25">
-        <v>0.1016468612878612</v>
+        <v>0.1396726355030182</v>
       </c>
       <c r="K25">
-        <v>0.9043805738272965</v>
+        <v>0.09928675287632149</v>
       </c>
       <c r="L25">
-        <v>0.3291949122472317</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3094100544218392</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.410220993124298</v>
+        <v>1.123803021963852</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.4950160077759023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.397858086084398</v>
+        <v>2.397876361422448</v>
       </c>
       <c r="C2">
-        <v>0.6620281703968374</v>
+        <v>0.6522480605250394</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2641803095605368</v>
+        <v>0.2627494285232927</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1164508739035099</v>
+        <v>0.1041654466101818</v>
       </c>
       <c r="H2">
-        <v>0.001569525803885252</v>
+        <v>0.00150324543756275</v>
       </c>
       <c r="I2">
-        <v>0.003711492867069843</v>
+        <v>0.003769584977136198</v>
       </c>
       <c r="J2">
-        <v>0.1451865783596205</v>
+        <v>0.1873418284585497</v>
       </c>
       <c r="K2">
-        <v>0.1129629581932505</v>
+        <v>0.1133164447096395</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08396362232757326</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01657217060703164</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9430775266525089</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.5009247930377398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.94260262145783</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.5100875489959833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.097106210399943</v>
+        <v>2.099006656934819</v>
       </c>
       <c r="C3">
-        <v>0.5921590717653658</v>
+        <v>0.5770988759906288</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2388020885124078</v>
+        <v>0.2381519989960097</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1141070854920443</v>
+        <v>0.1021957576372898</v>
       </c>
       <c r="H3">
-        <v>0.0007415268780170958</v>
+        <v>0.0007170691911301263</v>
       </c>
       <c r="I3">
-        <v>0.002579866824384158</v>
+        <v>0.002752380647531361</v>
       </c>
       <c r="J3">
-        <v>0.1486807380607686</v>
+        <v>0.1900772274746743</v>
       </c>
       <c r="K3">
-        <v>0.1226138583939109</v>
+        <v>0.1223282572964677</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08865231556705133</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01983821418575982</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8216970079182602</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.5030010388609298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8205389533802787</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.5143990778720848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.911902500970967</v>
+        <v>1.91489995036676</v>
       </c>
       <c r="C4">
-        <v>0.5495298990399817</v>
+        <v>0.5313991603709383</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2231902178249285</v>
+        <v>0.2230149212076711</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1130088526642581</v>
+        <v>0.1013035113996636</v>
       </c>
       <c r="H4">
-        <v>0.0003747799658734285</v>
+        <v>0.0003668767044098242</v>
       </c>
       <c r="I4">
-        <v>0.002005265146505675</v>
+        <v>0.002230156223122393</v>
       </c>
       <c r="J4">
-        <v>0.1510702753049316</v>
+        <v>0.1918696181596751</v>
       </c>
       <c r="K4">
-        <v>0.1288812917456401</v>
+        <v>0.1281590234249266</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09187986269634418</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02222468477101769</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7471789432671443</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.5055030220673657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7456117366934123</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.5179911115746947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.836162458545942</v>
+        <v>1.839597010529957</v>
       </c>
       <c r="C5">
-        <v>0.5331728836852392</v>
+        <v>0.5137928420211608</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.216743466709552</v>
+        <v>0.2167629199298169</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1123608047497804</v>
+        <v>0.1007415264198137</v>
       </c>
       <c r="H5">
-        <v>0.0002584581386272378</v>
+        <v>0.0002551728221423799</v>
       </c>
       <c r="I5">
-        <v>0.001857020685958055</v>
+        <v>0.002111888548550489</v>
       </c>
       <c r="J5">
-        <v>0.1519489848228659</v>
+        <v>0.1924674158685598</v>
       </c>
       <c r="K5">
-        <v>0.1314351951257424</v>
+        <v>0.130518803835554</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09319274531706512</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02331213497354812</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7169955719407213</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.5058965298875435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7152584174052024</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.5187717942836372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.823422142519007</v>
+        <v>1.826932283440442</v>
       </c>
       <c r="C6">
-        <v>0.5316280607571855</v>
+        <v>0.5119927283887193</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2155805104464612</v>
+        <v>0.2156350984134363</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1119148862597541</v>
+        <v>0.1003200616733899</v>
       </c>
       <c r="H6">
-        <v>0.0002408415551875542</v>
+        <v>0.0002382030897131182</v>
       </c>
       <c r="I6">
-        <v>0.001912098774704774</v>
+        <v>0.002188821085276516</v>
       </c>
       <c r="J6">
-        <v>0.1519101656978101</v>
+        <v>0.1923730105355261</v>
       </c>
       <c r="K6">
-        <v>0.1317642147211644</v>
+        <v>0.130808336695134</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09330760050431053</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02352331955519915</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7122119369182158</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.5048573828571676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.710438789152434</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.5178076156406206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.91045781385796</v>
+        <v>1.913474042954306</v>
       </c>
       <c r="C7">
-        <v>0.5525071643509705</v>
+        <v>0.5337221164591028</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2228529867545035</v>
+        <v>0.2226874025892229</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1120631856187657</v>
+        <v>0.1018179005080491</v>
       </c>
       <c r="H7">
-        <v>0.0003722223738805708</v>
+        <v>0.0003635282983828203</v>
       </c>
       <c r="I7">
-        <v>0.002202068380072753</v>
+        <v>0.002468373280507308</v>
       </c>
       <c r="J7">
-        <v>0.1505691641805136</v>
+        <v>0.1889459902038197</v>
       </c>
       <c r="K7">
-        <v>0.1286455723704942</v>
+        <v>0.1278146701623961</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09152409336293399</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02231609978023963</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.747397794272338</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5024470219054535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7457094380081344</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.513254529795951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.293705726524479</v>
+        <v>2.294414576083</v>
       </c>
       <c r="C8">
-        <v>0.6421575422220087</v>
+        <v>0.6286745042436905</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2551054472688463</v>
+        <v>0.2539609991624303</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.1143347528170793</v>
+        <v>0.1070147598324382</v>
       </c>
       <c r="H8">
-        <v>0.001251373897738994</v>
+        <v>0.001196655140086267</v>
       </c>
       <c r="I8">
-        <v>0.003533695666943615</v>
+        <v>0.003677934087397361</v>
       </c>
       <c r="J8">
-        <v>0.1456684949105878</v>
+        <v>0.1799147473716545</v>
       </c>
       <c r="K8">
-        <v>0.1158803734015299</v>
+        <v>0.1157567032915472</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08499194411889732</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0176548369981222</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9020540343488719</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.4973545279699181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9009844916180967</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.5017784827091418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.04203314391907</v>
+        <v>3.037634496309295</v>
       </c>
       <c r="C9">
-        <v>0.8145607329282427</v>
+        <v>0.8148526176848918</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3186711946523957</v>
+        <v>0.3155528605700084</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1234049448253529</v>
+        <v>0.1163169797352452</v>
       </c>
       <c r="H9">
-        <v>0.00420845301300099</v>
+        <v>0.003985763801131137</v>
       </c>
       <c r="I9">
-        <v>0.006899054033381979</v>
+        <v>0.006581816043284228</v>
       </c>
       <c r="J9">
-        <v>0.1390045318770206</v>
+        <v>0.1723644340765915</v>
       </c>
       <c r="K9">
-        <v>0.09415325078509307</v>
+        <v>0.09536161821478495</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07566377723787721</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01151279012560957</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.204579754113993</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.5032717426692699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.205160909079765</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.49893682533434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.60854753016531</v>
+        <v>3.600168801703262</v>
       </c>
       <c r="C10">
-        <v>0.9476324854843767</v>
+        <v>0.9542257593512886</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3388888707623963</v>
+        <v>0.3345247247276575</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1271163258850692</v>
+        <v>0.1291215692220717</v>
       </c>
       <c r="H10">
-        <v>0.007145111629897283</v>
+        <v>0.006732468059325925</v>
       </c>
       <c r="I10">
-        <v>0.01021345677026808</v>
+        <v>0.009431159678962686</v>
       </c>
       <c r="J10">
-        <v>0.1328283129999761</v>
+        <v>0.1535685607599042</v>
       </c>
       <c r="K10">
-        <v>0.07925984613281489</v>
+        <v>0.08115911570973</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07026062817022338</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.008512749995438718</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.391031540384702</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.4986435046130993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.391895889550909</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.4787145118959444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.035141464210142</v>
+        <v>4.026553392902144</v>
       </c>
       <c r="C11">
-        <v>1.040821840573216</v>
+        <v>1.031016080053234</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1667883774337682</v>
+        <v>0.1631815504743379</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.09111345644161872</v>
+        <v>0.1122933697764807</v>
       </c>
       <c r="H11">
-        <v>0.02475213356846595</v>
+        <v>0.02430395395083806</v>
       </c>
       <c r="I11">
-        <v>0.01187436814871834</v>
+        <v>0.01093583701283318</v>
       </c>
       <c r="J11">
-        <v>0.1100740538956586</v>
+        <v>0.1198320120097289</v>
       </c>
       <c r="K11">
-        <v>0.06959861539286227</v>
+        <v>0.07382167151753194</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06868959217282899</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.005853287486839462</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.171565244788596</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.3748279256067804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.169330799078523</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.3507044637580208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.285130943273487</v>
+        <v>4.277202750757397</v>
       </c>
       <c r="C12">
-        <v>1.087533919863262</v>
+        <v>1.06369304365623</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08295876259760071</v>
+        <v>0.07960735961460763</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0654568375826905</v>
+        <v>0.09274747021849805</v>
       </c>
       <c r="H12">
-        <v>0.06256513039103595</v>
+        <v>0.06212764321731612</v>
       </c>
       <c r="I12">
-        <v>0.01226930685707384</v>
+        <v>0.01123113020105926</v>
       </c>
       <c r="J12">
-        <v>0.0946902028287866</v>
+        <v>0.1087189014846848</v>
       </c>
       <c r="K12">
-        <v>0.06898986174044452</v>
+        <v>0.07478098683012657</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07019929966704197</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.005569572195710304</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9648242669408944</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.2882700022008464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9607691784213586</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.2697866129726165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.410542674159728</v>
+        <v>4.403996774858911</v>
       </c>
       <c r="C13">
-        <v>1.105794440948074</v>
+        <v>1.070441630711571</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06056513047529855</v>
+        <v>0.05715209807583888</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.04457111232993682</v>
+        <v>0.06696448377350706</v>
       </c>
       <c r="H13">
-        <v>0.1174244369195492</v>
+        <v>0.1170336775787462</v>
       </c>
       <c r="I13">
-        <v>0.01197242862057468</v>
+        <v>0.01097227772374865</v>
       </c>
       <c r="J13">
-        <v>0.08312279951456958</v>
+        <v>0.1063612797770876</v>
       </c>
       <c r="K13">
-        <v>0.0744718041388186</v>
+        <v>0.08033784060241977</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07275127967687212</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.006962742136238376</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7580978031420926</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.2197345458872135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7531698410518501</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.2140935534600388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.441609586906793</v>
+        <v>4.436359495833756</v>
       </c>
       <c r="C14">
-        <v>1.106756771705108</v>
+        <v>1.064414113347254</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08075640518266347</v>
+        <v>0.07712209867153064</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.03255867765488318</v>
+        <v>0.04812479837377381</v>
       </c>
       <c r="H14">
-        <v>0.16617404217385</v>
+        <v>0.1658268200808948</v>
       </c>
       <c r="I14">
-        <v>0.01153177173698872</v>
+        <v>0.01063295054721003</v>
       </c>
       <c r="J14">
-        <v>0.07691285372111523</v>
+        <v>0.1063924531564798</v>
       </c>
       <c r="K14">
-        <v>0.0815250809281558</v>
+        <v>0.08623540952340569</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07477491794191948</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.008884237133033324</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.617380708970245</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.1812010837172338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6122378633477012</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.1854008175710362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.420875639808457</v>
+        <v>4.416102769082499</v>
       </c>
       <c r="C15">
-        <v>1.102129539314348</v>
+        <v>1.058574825562204</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09017280388597015</v>
+        <v>0.0865064791553003</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.02995781350783489</v>
+        <v>0.0426696810586904</v>
       </c>
       <c r="H15">
-        <v>0.1784625952988534</v>
+        <v>0.1781345871570608</v>
       </c>
       <c r="I15">
-        <v>0.01136509970511224</v>
+        <v>0.01054365725875073</v>
       </c>
       <c r="J15">
-        <v>0.07588326949339574</v>
+        <v>0.1070039794839189</v>
       </c>
       <c r="K15">
-        <v>0.08410796116602448</v>
+        <v>0.0881492585617778</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07521271062052293</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.009610338136972096</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5812130407738252</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.1734966683690402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5761189529189608</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.1807947415739406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.145474241948875</v>
+        <v>4.142175677740795</v>
       </c>
       <c r="C16">
-        <v>1.041975404724184</v>
+        <v>1.003331753028931</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08646587674583373</v>
+        <v>0.08334447485852081</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.03179960007276961</v>
+        <v>0.03477517990214096</v>
       </c>
       <c r="H16">
-        <v>0.1647462090540159</v>
+        <v>0.164506395196284</v>
       </c>
       <c r="I16">
-        <v>0.01000258501983797</v>
+        <v>0.009481490318121288</v>
       </c>
       <c r="J16">
-        <v>0.08026661268994317</v>
+        <v>0.1162074471774837</v>
       </c>
       <c r="K16">
-        <v>0.08818253390589348</v>
+        <v>0.09001445069410074</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07398440505871307</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01086224163206051</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5499111212828822</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.1863979951366304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5455302782267495</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.2023740018550129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.918479628206171</v>
+        <v>3.915607822591028</v>
       </c>
       <c r="C17">
-        <v>0.9956419416138829</v>
+        <v>0.9635267112956285</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06718327240682598</v>
+        <v>0.06458429073629723</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.03930034411351357</v>
+        <v>0.03835347052863014</v>
       </c>
       <c r="H17">
-        <v>0.1265138231191969</v>
+        <v>0.1263142258773939</v>
       </c>
       <c r="I17">
-        <v>0.009240418235650694</v>
+        <v>0.008882941463848937</v>
       </c>
       <c r="J17">
-        <v>0.08684790598829295</v>
+        <v>0.126027000879315</v>
       </c>
       <c r="K17">
-        <v>0.08744373763049396</v>
+        <v>0.08902574076286562</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07265283056267524</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01074944931217292</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5978603014367039</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.2159751523132911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5940603658504813</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.2346358988866371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.710654995214156</v>
+        <v>3.70734135681397</v>
       </c>
       <c r="C18">
-        <v>0.9533647000847338</v>
+        <v>0.9310256490068411</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06346996871901389</v>
+        <v>0.06123195448375185</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.05493611412046562</v>
+        <v>0.05152059612084514</v>
       </c>
       <c r="H18">
-        <v>0.07379035777717036</v>
+        <v>0.07359807314389144</v>
       </c>
       <c r="I18">
-        <v>0.008657100690602881</v>
+        <v>0.008327244737949435</v>
       </c>
       <c r="J18">
-        <v>0.09717594798229712</v>
+        <v>0.1378201792687008</v>
       </c>
       <c r="K18">
-        <v>0.08412871656667509</v>
+        <v>0.08643457221850248</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07144441141258095</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.009706921707009375</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7290649244881422</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.2707022027836601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7261523411869604</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.2881347942124748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.536247519937149</v>
+        <v>3.531849845126089</v>
       </c>
       <c r="C19">
-        <v>0.9248627818918465</v>
+        <v>0.9140686669506692</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1191131200257516</v>
+        <v>0.1167160955353062</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.07813818200133227</v>
+        <v>0.0723876947492812</v>
       </c>
       <c r="H19">
-        <v>0.02936055290942363</v>
+        <v>0.02914267037320428</v>
       </c>
       <c r="I19">
-        <v>0.008762961639787292</v>
+        <v>0.008463867328719843</v>
       </c>
       <c r="J19">
-        <v>0.1105628104439269</v>
+        <v>0.1509481035104052</v>
       </c>
       <c r="K19">
-        <v>0.08220416117179408</v>
+        <v>0.0850252155182023</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07112936538166981</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.008958156344372137</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9349421128444249</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.3479262836936385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9333936590848992</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.3597036477097504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.45931563028779</v>
+        <v>3.452047855902322</v>
       </c>
       <c r="C20">
-        <v>0.9230621899672826</v>
+        <v>0.9295320846923971</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3316868044154404</v>
+        <v>0.3276635798050833</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1229621550825968</v>
+        <v>0.1174094822613299</v>
       </c>
       <c r="H20">
-        <v>0.006276191876833259</v>
+        <v>0.005928833008074452</v>
       </c>
       <c r="I20">
-        <v>0.009937258429091322</v>
+        <v>0.009470363840388352</v>
       </c>
       <c r="J20">
-        <v>0.1327266842561059</v>
+        <v>0.1640824018072564</v>
       </c>
       <c r="K20">
-        <v>0.08236329084430305</v>
+        <v>0.08440099000364731</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0713742132717835</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.009065585178814617</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.342510647877887</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.489509969301082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.343595004217306</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.4802559406365816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.864767411244429</v>
+        <v>3.854139417760223</v>
       </c>
       <c r="C21">
-        <v>1.019177442833865</v>
+        <v>1.023057731356431</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.388351402761522</v>
+        <v>0.3832337361778428</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.134390694960949</v>
+        <v>0.1653311777108399</v>
       </c>
       <c r="H21">
-        <v>0.009090621879423999</v>
+        <v>0.008498925284032885</v>
       </c>
       <c r="I21">
-        <v>0.01271120528967362</v>
+        <v>0.01168961794445167</v>
       </c>
       <c r="J21">
-        <v>0.1325750284011136</v>
+        <v>0.1243187692662602</v>
       </c>
       <c r="K21">
-        <v>0.07296587964581391</v>
+        <v>0.0743485871996068</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06818424289721303</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.007186843619185534</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.54238587342698</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.5137538607878867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.542121580348649</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.4585612826950154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.139706119315804</v>
+        <v>4.126913003824654</v>
       </c>
       <c r="C22">
-        <v>1.079613892352739</v>
+        <v>1.080338241940609</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4122927766758693</v>
+        <v>0.4066133603206197</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1411967141534518</v>
+        <v>0.2019700062835099</v>
       </c>
       <c r="H22">
-        <v>0.01106635251216105</v>
+        <v>0.01029525946184976</v>
       </c>
       <c r="I22">
-        <v>0.01442485678131877</v>
+        <v>0.01293076085013123</v>
       </c>
       <c r="J22">
-        <v>0.1321761638157994</v>
+        <v>0.1074703359038152</v>
       </c>
       <c r="K22">
-        <v>0.06712492484048127</v>
+        <v>0.06818603632764848</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06664451822901052</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.006154849382456362</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.653735595231538</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5275574053459309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.652236230344457</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.440491902104668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.993480399450334</v>
+        <v>3.98179692081959</v>
       </c>
       <c r="C23">
-        <v>1.043365340914619</v>
+        <v>1.047288932481138</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3997960622014531</v>
+        <v>0.3943690691391737</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1385889846960495</v>
+        <v>0.1786153100467232</v>
       </c>
       <c r="H23">
-        <v>0.009994607791828749</v>
+        <v>0.009328648831071901</v>
       </c>
       <c r="I23">
-        <v>0.01323934540128757</v>
+        <v>0.01195010560186471</v>
       </c>
       <c r="J23">
-        <v>0.1329339639588483</v>
+        <v>0.1178895797834372</v>
       </c>
       <c r="K23">
-        <v>0.07043818906594979</v>
+        <v>0.07162666621026265</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06741570764056615</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.006847589133218701</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.593520051537283</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5235044791699153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.59299475298198</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.457189902969418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.438606001430685</v>
+        <v>3.431220512863433</v>
       </c>
       <c r="C24">
-        <v>0.9131335300178876</v>
+        <v>0.9208959738888041</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3521610085241278</v>
+        <v>0.3479900783354566</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1280874159872454</v>
+        <v>0.1218702217364651</v>
       </c>
       <c r="H24">
-        <v>0.006362488088954954</v>
+        <v>0.006009887003881442</v>
       </c>
       <c r="I24">
-        <v>0.009517152980026644</v>
+        <v>0.00895004600793925</v>
       </c>
       <c r="J24">
-        <v>0.1355374733637902</v>
+        <v>0.1669331326135648</v>
       </c>
       <c r="K24">
-        <v>0.08348475569529823</v>
+        <v>0.08528324141855492</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07171107818187177</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.009395086249171403</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.367199624847586</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.5062599768134817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.368558197056373</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.4957079364673831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.839194984352844</v>
+        <v>2.836265716913033</v>
       </c>
       <c r="C25">
-        <v>0.7735657351525731</v>
+        <v>0.770560796022977</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3010258940053845</v>
+        <v>0.2984576020824719</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1189306365586589</v>
+        <v>0.1097894013757426</v>
       </c>
       <c r="H25">
-        <v>0.003257781608861032</v>
+        <v>0.00309360395522984</v>
       </c>
       <c r="I25">
-        <v>0.006212667271132233</v>
+        <v>0.006132834642376572</v>
       </c>
       <c r="J25">
-        <v>0.1396726355030182</v>
+        <v>0.1766066172075256</v>
       </c>
       <c r="K25">
-        <v>0.09928675287632149</v>
+        <v>0.1003226609493928</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07772200697946641</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01278514722622098</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.123803021963852</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.4950160077759023</v>
+        <v>1.124042378784026</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.4959813595492903</v>
       </c>
     </row>
   </sheetData>
